--- a/MDT/DienstenCatalogus/Dienstendefinitie EDS.xlsx
+++ b/MDT/DienstenCatalogus/Dienstendefinitie EDS.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">PIDs!$A$1:$D$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PIDs per webdienst'!$A$2:$E$1000</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Producten!$B$1:$K$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Producten!$B$1:$L$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Subsysteem per webdienst'!$A$2:$D$1000</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Totaaloverzicht!$A$2:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Webdiensten!$A$2:$Q$61</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="869">
   <si>
     <t>Tarief</t>
   </si>
@@ -2924,12 +2924,6 @@
     <t>edsOmschrijving</t>
   </si>
   <si>
-    <t>[RDWProduct]</t>
-  </si>
-  <si>
-    <t>RDWProduct</t>
-  </si>
-  <si>
     <t>edsProductcode</t>
   </si>
   <si>
@@ -2952,6 +2946,30 @@
   </si>
   <si>
     <t>edsOrdersoort</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>ArtikelOmschrijving</t>
+  </si>
+  <si>
+    <t>EDSProduct</t>
+  </si>
+  <si>
+    <t>[EDSProduct]</t>
+  </si>
+  <si>
+    <t>EDSProductcode</t>
+  </si>
+  <si>
+    <t>EDSProductDefinitie</t>
+  </si>
+  <si>
+    <t>rdwProduct</t>
+  </si>
+  <si>
+    <t>EDSVerkoopgroep</t>
   </si>
 </sst>
 </file>
@@ -3368,7 +3386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3734,6 +3752,29 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -3751,32 +3792,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4357,7 +4372,7 @@
       <c r="AD3" s="109"/>
       <c r="AE3" s="91"/>
     </row>
-    <row r="4" spans="1:31" s="136" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="126" t="s">
         <v>731</v>
       </c>
@@ -4444,39 +4459,39 @@
         <v>IVS</v>
       </c>
       <c r="X4" s="132" t="str">
-        <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F4,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F4,Producten!$B$4:$B$983,0),X$1))</f>
         <v>IVS-VL-LTD</v>
       </c>
       <c r="Y4" s="133">
-        <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F4,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F4,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z4" s="134">
-        <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F4,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z4" s="134" t="str">
+        <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F4,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30110508</v>
       </c>
-      <c r="AA4" s="135" t="str">
-        <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F4,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA4" s="135">
+        <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F4,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30110508</v>
+      </c>
+      <c r="AB4" s="131" t="str">
+        <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F4,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3843</v>
       </c>
-      <c r="AB4" s="131">
-        <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F4,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC4" s="131">
+        <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F4,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3843</v>
       </c>
-      <c r="AC4" s="131" t="str">
-        <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F4,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD4" s="131" t="str">
+        <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F4,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD4" s="131">
-        <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F4,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE4" s="6" t="str">
         <f>IF($E4 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E4,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/wagenparkoverzicht-beperkt-eigenaar</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="125" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="125" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="115" t="s">
         <v>718</v>
       </c>
@@ -4563,31 +4578,31 @@
         <v>DEM</v>
       </c>
       <c r="X5" s="121" t="str">
-        <f>IF($F5 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F5,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F5 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F5,Producten!$B$4:$B$983,0),X$1))</f>
         <v>DEM-BED</v>
       </c>
       <c r="Y5" s="122">
-        <f>IF($F5 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F5,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F5 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F5,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="123">
-        <f>IF($F5 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F5,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z5" s="123" t="str">
+        <f>IF($F5 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F5,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221204</v>
       </c>
-      <c r="AA5" s="124" t="str">
-        <f>IF($F5 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F5,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA5" s="124">
+        <f>IF($F5 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F5,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221204</v>
       </c>
       <c r="AB5" s="120" t="str">
-        <f>IF($F5 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F5,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F5 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F5,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC5" s="120" t="str">
+        <f>IF($F5 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F5,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC5" s="120" t="str">
-        <f>IF($F5 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F5,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD5" s="120" t="str">
-        <f>IF($F5 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F5,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F5 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F5,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE5" s="6" t="str">
@@ -4595,7 +4610,7 @@
         <v>/aanvragen-demontagecode-certificaat</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="136" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="136" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="126" t="s">
         <v>727</v>
       </c>
@@ -4682,31 +4697,31 @@
         <v>EMM</v>
       </c>
       <c r="X6" s="132" t="str">
-        <f>IF($F6 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F6,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F6 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F6,Producten!$B$4:$B$983,0),X$1))</f>
         <v>EMM</v>
       </c>
       <c r="Y6" s="133">
-        <f>IF($F6 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F6,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F6 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F6,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="134">
-        <f>IF($F6 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F6,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z6" s="134" t="str">
+        <f>IF($F6 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F6,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221216</v>
       </c>
-      <c r="AA6" s="135" t="str">
-        <f>IF($F6 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F6,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA6" s="135">
+        <f>IF($F6 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F6,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221216</v>
       </c>
       <c r="AB6" s="131" t="str">
-        <f>IF($F6 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F6,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F6 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F6,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC6" s="131" t="str">
+        <f>IF($F6 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F6,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC6" s="131" t="str">
-        <f>IF($F6 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F6,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD6" s="131" t="str">
-        <f>IF($F6 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F6,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F6 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F6,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE6" s="6" t="str">
@@ -4714,7 +4729,7 @@
         <v>/eenmalig-machtigen</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="125" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="115" t="s">
         <v>714</v>
       </c>
@@ -4799,31 +4814,31 @@
         <v>PAS-KAH</v>
       </c>
       <c r="X7" s="121" t="str">
-        <f>IF($F7 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F7,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F7 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F7,Producten!$B$4:$B$983,0),X$1))</f>
         <v>diverse (PAS2-*)</v>
       </c>
       <c r="Y7" s="122" t="str">
-        <f>IF($F7 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F7,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F7 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F7,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>diverse</v>
       </c>
       <c r="Z7" s="123" t="str">
-        <f>IF($F7 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F7,Producten!$B$4:$B$983,0),Z$1))</f>
+        <f>IF($F7 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F7,Producten!$B$4:$B$983,0),Z$1))</f>
+        <v/>
+      </c>
+      <c r="AA7" s="124" t="str">
+        <f>IF($F7 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F7,Producten!$B$4:$B$983,0),AA$1))</f>
         <v>-</v>
       </c>
-      <c r="AA7" s="124" t="str">
-        <f>IF($F7 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F7,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
-      </c>
       <c r="AB7" s="120" t="str">
-        <f>IF($F7 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F7,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F7 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F7,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC7" s="120" t="str">
+        <f>IF($F7 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F7,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC7" s="120" t="str">
-        <f>IF($F7 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F7,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD7" s="120" t="str">
-        <f>IF($F7 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F7,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F7 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F7,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE7" s="6" t="str">
@@ -4831,7 +4846,7 @@
         <v>/keuringsafspraak-bedrijf-aan-huis</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="136" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="126" t="s">
         <v>713</v>
       </c>
@@ -4916,31 +4931,31 @@
         <v>PAS-KOS</v>
       </c>
       <c r="X8" s="132" t="str">
-        <f>IF($F8 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F8,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F8 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F8,Producten!$B$4:$B$983,0),X$1))</f>
         <v>diverse (PAS2-*)</v>
       </c>
       <c r="Y8" s="133" t="str">
-        <f>IF($F8 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F8,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F8 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F8,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>diverse</v>
       </c>
       <c r="Z8" s="134" t="str">
-        <f>IF($F8 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F8,Producten!$B$4:$B$983,0),Z$1))</f>
+        <f>IF($F8 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F8,Producten!$B$4:$B$983,0),Z$1))</f>
+        <v/>
+      </c>
+      <c r="AA8" s="135" t="str">
+        <f>IF($F8 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F8,Producten!$B$4:$B$983,0),AA$1))</f>
         <v>-</v>
       </c>
-      <c r="AA8" s="135" t="str">
-        <f>IF($F8 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F8,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
-      </c>
       <c r="AB8" s="131" t="str">
-        <f>IF($F8 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F8,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F8 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F8,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC8" s="131" t="str">
+        <f>IF($F8 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F8,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC8" s="131" t="str">
-        <f>IF($F8 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F8,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD8" s="131" t="str">
-        <f>IF($F8 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F8,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F8 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F8,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE8" s="6" t="str">
@@ -4948,7 +4963,7 @@
         <v>/keuringsafspraak-bedrijf-op-station</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="125" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="115" t="s">
         <v>710</v>
       </c>
@@ -5035,39 +5050,39 @@
         <v>IVS</v>
       </c>
       <c r="X9" s="121" t="str">
-        <f>IF($F9 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F9,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F9 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F9,Producten!$B$4:$B$983,0),X$1))</f>
         <v>IVS-VRZ</v>
       </c>
       <c r="Y9" s="122">
-        <f>IF($F9 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F9,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F9 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F9,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z9" s="123">
-        <f>IF($F9 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F9,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z9" s="123" t="str">
+        <f>IF($F9 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F9,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30110506</v>
       </c>
-      <c r="AA9" s="124" t="str">
-        <f>IF($F9 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F9,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA9" s="124">
+        <f>IF($F9 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F9,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30110506</v>
+      </c>
+      <c r="AB9" s="120" t="str">
+        <f>IF($F9 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F9,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3917</v>
       </c>
-      <c r="AB9" s="120">
-        <f>IF($F9 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F9,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC9" s="120">
+        <f>IF($F9 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F9,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3917</v>
       </c>
-      <c r="AC9" s="120" t="str">
-        <f>IF($F9 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F9,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD9" s="120" t="str">
+        <f>IF($F9 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F9,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD9" s="120">
-        <f>IF($F9 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F9,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE9" s="6" t="str">
         <f>IF($E9 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E9,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/voertuiggegevens-eigenaar</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="126" t="s">
         <v>726</v>
       </c>
@@ -5152,39 +5167,39 @@
         <v>RBCZ</v>
       </c>
       <c r="X10" s="132" t="str">
-        <f>IF($F10 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F10,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F10 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F10,Producten!$B$4:$B$983,0),X$1))</f>
         <v>RBCZ</v>
       </c>
       <c r="Y10" s="133">
-        <f>IF($F10 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F10,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F10 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F10,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z10" s="134">
-        <f>IF($F10 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F10,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z10" s="134" t="str">
+        <f>IF($F10 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F10,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30130801</v>
       </c>
-      <c r="AA10" s="135" t="str">
-        <f>IF($F10 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F10,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA10" s="135">
+        <f>IF($F10 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F10,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30130801</v>
+      </c>
+      <c r="AB10" s="131" t="str">
+        <f>IF($F10 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F10,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3784</v>
       </c>
-      <c r="AB10" s="131">
-        <f>IF($F10 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F10,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC10" s="131">
+        <f>IF($F10 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F10,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3784</v>
       </c>
-      <c r="AC10" s="131" t="str">
-        <f>IF($F10 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F10,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD10" s="131" t="str">
+        <f>IF($F10 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F10,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z47</v>
-      </c>
-      <c r="AD10" s="131">
-        <f>IF($F10 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F10,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE10" s="6">
         <f>IF($E10 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E10,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="125" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="125" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="115" t="s">
         <v>792</v>
       </c>
@@ -5269,7 +5284,7 @@
         <v>SCH</v>
       </c>
       <c r="X11" s="121" t="str">
-        <f>IF($F11 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F11,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F11 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F11,Producten!$B$4:$B$983,0),X$1))</f>
         <v>SCH6,
 SCH2,
 SCH1,
@@ -5277,7 +5292,7 @@
 SCH3</v>
       </c>
       <c r="Y11" s="122" t="str">
-        <f>IF($F11 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F11,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F11 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F11,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>11,-
 24,-
 73,-
@@ -5285,7 +5300,7 @@
 0,-</v>
       </c>
       <c r="Z11" s="123" t="str">
-        <f>IF($F11 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F11,Producten!$B$4:$B$983,0),Z$1))</f>
+        <f>IF($F11 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F11,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30223111, 
 30223117, 
 30223116, 
@@ -5293,35 +5308,39 @@
 30223108</v>
       </c>
       <c r="AA11" s="124" t="str">
-        <f>IF($F11 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F11,Producten!$B$4:$B$983,0),AA$1))</f>
+        <f>IF($F11 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F11,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30223111, 
+30223117, 
+30223116, 
+30223118,  
+30223108</v>
+      </c>
+      <c r="AB11" s="120" t="str">
+        <f>IF($F11 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F11,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3925,
 3923,
 3922,
 3924,
 -</v>
       </c>
-      <c r="AB11" s="120" t="str">
-        <f>IF($F11 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F11,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC11" s="120" t="str">
+        <f>IF($F11 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F11,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3925,
 3923,
 3922,
 3924,
 -</v>
       </c>
-      <c r="AC11" s="120" t="str">
-        <f>IF($F11 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F11,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD11" s="120" t="str">
+        <f>IF($F11 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F11,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z43</v>
-      </c>
-      <c r="AD11" s="120">
-        <f>IF($F11 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F11,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE11" s="6" t="str">
         <f>IF($E11 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E11,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/schorsen-of-verlengen-kvk</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="136" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="136" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="126" t="s">
         <v>791</v>
       </c>
@@ -5406,7 +5425,7 @@
         <v>SCH</v>
       </c>
       <c r="X12" s="132" t="str">
-        <f>IF($F12 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F12,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F12 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F12,Producten!$B$4:$B$983,0),X$1))</f>
         <v>SCH6,
 SCH2,
 SCH1,
@@ -5414,7 +5433,7 @@
 SCH3</v>
       </c>
       <c r="Y12" s="133" t="str">
-        <f>IF($F12 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F12,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F12 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F12,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>11,-
 24,-
 73,-
@@ -5422,7 +5441,7 @@
 0,-</v>
       </c>
       <c r="Z12" s="134" t="str">
-        <f>IF($F12 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F12,Producten!$B$4:$B$983,0),Z$1))</f>
+        <f>IF($F12 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F12,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30223111, 
 30223117, 
 30223116, 
@@ -5430,28 +5449,32 @@
 30223108</v>
       </c>
       <c r="AA12" s="135" t="str">
-        <f>IF($F12 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F12,Producten!$B$4:$B$983,0),AA$1))</f>
+        <f>IF($F12 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F12,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30223111, 
+30223117, 
+30223116, 
+30223118,  
+30223108</v>
+      </c>
+      <c r="AB12" s="131" t="str">
+        <f>IF($F12 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F12,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3925,
 3923,
 3922,
 3924,
 -</v>
       </c>
-      <c r="AB12" s="131" t="str">
-        <f>IF($F12 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F12,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC12" s="131" t="str">
+        <f>IF($F12 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F12,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3925,
 3923,
 3922,
 3924,
 -</v>
       </c>
-      <c r="AC12" s="131" t="str">
-        <f>IF($F12 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F12,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD12" s="131" t="str">
+        <f>IF($F12 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F12,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z43</v>
-      </c>
-      <c r="AD12" s="131">
-        <f>IF($F12 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F12,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE12" s="6" t="str">
         <f>IF($E12 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E12,Webdiensten!$A$2:$A$991,0),AE$1))</f>
@@ -5543,31 +5566,31 @@
         <v>SCH</v>
       </c>
       <c r="X13" s="121" t="str">
-        <f>IF($F13 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F13,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F13 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F13,Producten!$B$4:$B$983,0),X$1))</f>
         <v>SCH5</v>
       </c>
       <c r="Y13" s="122">
-        <f>IF($F13 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F13,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F13 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F13,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="123">
-        <f>IF($F13 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F13,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z13" s="123" t="str">
+        <f>IF($F13 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F13,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30223110</v>
       </c>
-      <c r="AA13" s="124" t="str">
-        <f>IF($F13 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F13,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA13" s="124">
+        <f>IF($F13 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F13,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30223110</v>
       </c>
       <c r="AB13" s="120" t="str">
-        <f>IF($F13 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F13,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F13 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F13,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC13" s="120" t="str">
+        <f>IF($F13 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F13,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC13" s="120" t="str">
-        <f>IF($F13 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F13,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD13" s="120" t="str">
-        <f>IF($F13 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F13,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F13 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F13,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE13" s="6" t="str">
@@ -5660,31 +5683,31 @@
         <v>SCH</v>
       </c>
       <c r="X14" s="132" t="str">
-        <f>IF($F14 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F14,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F14 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F14,Producten!$B$4:$B$983,0),X$1))</f>
         <v>SCH5</v>
       </c>
       <c r="Y14" s="133">
-        <f>IF($F14 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F14,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F14 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F14,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="134">
-        <f>IF($F14 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F14,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z14" s="134" t="str">
+        <f>IF($F14 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F14,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30223110</v>
       </c>
-      <c r="AA14" s="135" t="str">
-        <f>IF($F14 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F14,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA14" s="135">
+        <f>IF($F14 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F14,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30223110</v>
       </c>
       <c r="AB14" s="131" t="str">
-        <f>IF($F14 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F14,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F14 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F14,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC14" s="131" t="str">
+        <f>IF($F14 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F14,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC14" s="131" t="str">
-        <f>IF($F14 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F14,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD14" s="131" t="str">
-        <f>IF($F14 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F14,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F14 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F14,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE14" s="6" t="str">
@@ -5692,7 +5715,7 @@
         <v>/schorsing-opheffen-certificaat</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="125" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="115" t="s">
         <v>730</v>
       </c>
@@ -5779,39 +5802,39 @@
         <v>IVS</v>
       </c>
       <c r="X15" s="121" t="str">
-        <f>IF($F15 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F15,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F15 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F15,Producten!$B$4:$B$983,0),X$1))</f>
         <v>IVS-VL-DTL</v>
       </c>
       <c r="Y15" s="122">
-        <f>IF($F15 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F15,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F15 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F15,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>90</v>
       </c>
-      <c r="Z15" s="123">
-        <f>IF($F15 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F15,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z15" s="123" t="str">
+        <f>IF($F15 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F15,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30110509</v>
       </c>
-      <c r="AA15" s="124" t="str">
-        <f>IF($F15 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F15,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA15" s="124">
+        <f>IF($F15 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F15,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30110509</v>
+      </c>
+      <c r="AB15" s="120" t="str">
+        <f>IF($F15 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F15,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3832</v>
       </c>
-      <c r="AB15" s="120">
-        <f>IF($F15 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F15,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC15" s="120">
+        <f>IF($F15 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F15,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3832</v>
       </c>
-      <c r="AC15" s="120" t="str">
-        <f>IF($F15 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F15,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD15" s="120" t="str">
+        <f>IF($F15 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F15,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD15" s="120">
-        <f>IF($F15 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F15,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE15" s="6" t="str">
         <f>IF($E15 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E15,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/wagenparkoverzicht-uitgebreid-eigenaar</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="136" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="126" t="s">
         <v>793</v>
       </c>
@@ -5898,31 +5921,31 @@
         <v>VVK2</v>
       </c>
       <c r="X16" s="132" t="str">
-        <f>IF($F16 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F16,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F16 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F16,Producten!$B$4:$B$983,0),X$1))</f>
         <v>VVK-KEN-TEN-BED</v>
       </c>
       <c r="Y16" s="133">
-        <f>IF($F16 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F16,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F16 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F16,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>31.5</v>
       </c>
-      <c r="Z16" s="134">
-        <f>IF($F16 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F16,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z16" s="134" t="str">
+        <f>IF($F16 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F16,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221201</v>
       </c>
-      <c r="AA16" s="135" t="str">
-        <f>IF($F16 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F16,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA16" s="135">
+        <f>IF($F16 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F16,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221201</v>
       </c>
       <c r="AB16" s="131" t="str">
-        <f>IF($F16 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F16,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F16 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F16,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC16" s="131" t="str">
+        <f>IF($F16 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F16,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC16" s="131" t="str">
-        <f>IF($F16 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F16,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD16" s="131" t="str">
-        <f>IF($F16 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F16,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F16 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F16,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE16" s="6" t="str">
@@ -5930,7 +5953,7 @@
         <v>/kentekenbewijs-aanvragen-bedrijf/</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="125" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="115" t="s">
         <v>732</v>
       </c>
@@ -6017,39 +6040,39 @@
         <v>OVIZ</v>
       </c>
       <c r="X17" s="121" t="str">
-        <f>IF($F17 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F17,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F17 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F17,Producten!$B$4:$B$983,0),X$1))</f>
         <v>RBCZ</v>
       </c>
       <c r="Y17" s="122">
-        <f>IF($F17 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F17,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F17 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F17,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z17" s="123">
-        <f>IF($F17 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F17,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z17" s="123" t="str">
+        <f>IF($F17 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F17,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30130801</v>
       </c>
-      <c r="AA17" s="124" t="str">
-        <f>IF($F17 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F17,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA17" s="124">
+        <f>IF($F17 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F17,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30130801</v>
+      </c>
+      <c r="AB17" s="120" t="str">
+        <f>IF($F17 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F17,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3784</v>
       </c>
-      <c r="AB17" s="120">
-        <f>IF($F17 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F17,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC17" s="120">
+        <f>IF($F17 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F17,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3784</v>
       </c>
-      <c r="AC17" s="120" t="str">
-        <f>IF($F17 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F17,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD17" s="120" t="str">
+        <f>IF($F17 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F17,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z47</v>
-      </c>
-      <c r="AD17" s="120">
-        <f>IF($F17 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F17,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE17" s="6">
         <f>IF($E17 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E17,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="136" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="126" t="s">
         <v>296</v>
       </c>
@@ -6136,39 +6159,39 @@
         <v>IVS</v>
       </c>
       <c r="X18" s="132" t="str">
-        <f>IF($F18 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F18,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F18 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F18,Producten!$B$4:$B$983,0),X$1))</f>
         <v>IVS-REC-STAT</v>
       </c>
       <c r="Y18" s="133">
-        <f>IF($F18 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F18,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F18 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F18,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>1.95</v>
       </c>
-      <c r="Z18" s="134">
-        <f>IF($F18 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F18,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z18" s="134" t="str">
+        <f>IF($F18 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F18,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30111504</v>
       </c>
-      <c r="AA18" s="135" t="str">
-        <f>IF($F18 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F18,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA18" s="135">
+        <f>IF($F18 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F18,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30111504</v>
+      </c>
+      <c r="AB18" s="131" t="str">
+        <f>IF($F18 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F18,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3934</v>
       </c>
-      <c r="AB18" s="131">
-        <f>IF($F18 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F18,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC18" s="131">
+        <f>IF($F18 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F18,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3934</v>
       </c>
-      <c r="AC18" s="131" t="str">
-        <f>IF($F18 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F18,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD18" s="131" t="str">
+        <f>IF($F18 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F18,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD18" s="131">
-        <f>IF($F18 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F18,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE18" s="6" t="str">
         <f>IF($E18 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E18,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/overzicht-terugroepacties</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="125" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="115" t="s">
         <v>733</v>
       </c>
@@ -6255,31 +6278,31 @@
         <v>REC</v>
       </c>
       <c r="X19" s="121" t="str">
-        <f>IF($F19 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F19,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F19 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F19,Producten!$B$4:$B$983,0),X$1))</f>
         <v>REC-VIN</v>
       </c>
       <c r="Y19" s="122">
-        <f>IF($F19 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F19,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F19 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F19,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="123">
-        <f>IF($F19 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F19,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z19" s="123" t="str">
+        <f>IF($F19 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F19,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30111505</v>
       </c>
-      <c r="AA19" s="124" t="str">
-        <f>IF($F19 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F19,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA19" s="124">
+        <f>IF($F19 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F19,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30111505</v>
+      </c>
+      <c r="AB19" s="120" t="str">
+        <f>IF($F19 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F19,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3935</v>
       </c>
-      <c r="AB19" s="120">
-        <f>IF($F19 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F19,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC19" s="120">
+        <f>IF($F19 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F19,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3935</v>
       </c>
-      <c r="AC19" s="120">
-        <f>IF($F19 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F19,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>0</v>
-      </c>
       <c r="AD19" s="120">
-        <f>IF($F19 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F19,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F19 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F19,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>0</v>
       </c>
       <c r="AE19" s="6" t="str">
@@ -6287,7 +6310,7 @@
         <v>/aanleveren-vin-lijst</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="136" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="126" t="s">
         <v>292</v>
       </c>
@@ -6374,39 +6397,39 @@
         <v>IVS</v>
       </c>
       <c r="X20" s="132" t="str">
-        <f>IF($F20 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F20,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F20 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F20,Producten!$B$4:$B$983,0),X$1))</f>
         <v>IVS-VL-FGV</v>
       </c>
       <c r="Y20" s="133">
-        <f>IF($F20 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F20,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F20 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F20,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="134">
-        <f>IF($F20 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F20,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z20" s="134" t="str">
+        <f>IF($F20 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F20,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30110604</v>
       </c>
-      <c r="AA20" s="135" t="str">
-        <f>IF($F20 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F20,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA20" s="135">
+        <f>IF($F20 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F20,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30110604</v>
+      </c>
+      <c r="AB20" s="131" t="str">
+        <f>IF($F20 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F20,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3844</v>
       </c>
-      <c r="AB20" s="131">
-        <f>IF($F20 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F20,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC20" s="131">
+        <f>IF($F20 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F20,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3844</v>
       </c>
-      <c r="AC20" s="131" t="str">
-        <f>IF($F20 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F20,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD20" s="131" t="str">
+        <f>IF($F20 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F20,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD20" s="131">
-        <f>IF($F20 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F20,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE20" s="6" t="str">
         <f>IF($E20 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E20,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/voertuigkenmerken-handhavingssystemen</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="125" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="115" t="s">
         <v>708</v>
       </c>
@@ -6493,39 +6516,39 @@
         <v>IVS</v>
       </c>
       <c r="X21" s="121" t="str">
-        <f>IF($F21 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F21,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F21 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F21,Producten!$B$4:$B$983,0),X$1))</f>
         <v>IVS-VL-BVO</v>
       </c>
       <c r="Y21" s="122">
-        <f>IF($F21 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F21,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F21 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F21,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z21" s="123">
-        <f>IF($F21 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F21,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z21" s="123" t="str">
+        <f>IF($F21 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F21,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30110503</v>
       </c>
-      <c r="AA21" s="124" t="str">
-        <f>IF($F21 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F21,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA21" s="124">
+        <f>IF($F21 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F21,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30110503</v>
+      </c>
+      <c r="AB21" s="120" t="str">
+        <f>IF($F21 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F21,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3470</v>
       </c>
-      <c r="AB21" s="120">
-        <f>IF($F21 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F21,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC21" s="120">
+        <f>IF($F21 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F21,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3470</v>
       </c>
-      <c r="AC21" s="120" t="str">
-        <f>IF($F21 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F21,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD21" s="120" t="str">
+        <f>IF($F21 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F21,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z45</v>
-      </c>
-      <c r="AD21" s="120">
-        <f>IF($F21 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F21,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE21" s="6" t="str">
         <f>IF($E21 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E21,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/opvragen-bedrijfsvoorraad-erkenninghouder</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="136" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="136" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="126" t="s">
         <v>720</v>
       </c>
@@ -6612,31 +6635,31 @@
         <v>EMC</v>
       </c>
       <c r="X22" s="132" t="str">
-        <f>IF($F22 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F22,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F22 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F22,Producten!$B$4:$B$983,0),X$1))</f>
         <v>EMC</v>
       </c>
       <c r="Y22" s="133">
-        <f>IF($F22 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F22,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F22 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F22,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="134">
-        <f>IF($F22 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F22,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z22" s="134" t="str">
+        <f>IF($F22 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F22,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221203</v>
       </c>
-      <c r="AA22" s="135" t="str">
-        <f>IF($F22 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F22,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA22" s="135">
+        <f>IF($F22 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F22,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221203</v>
       </c>
       <c r="AB22" s="131" t="str">
-        <f>IF($F22 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F22,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F22 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F22,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC22" s="131" t="str">
+        <f>IF($F22 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F22,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC22" s="131" t="str">
-        <f>IF($F22 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F22,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD22" s="131" t="str">
-        <f>IF($F22 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F22,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F22 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F22,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE22" s="6" t="str">
@@ -6644,7 +6667,7 @@
         <v>/digitaal-machtigen</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="125" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="115" t="s">
         <v>701</v>
       </c>
@@ -6731,31 +6754,31 @@
         <v>KCB</v>
       </c>
       <c r="X23" s="121" t="str">
-        <f>IF($F23 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F23,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F23 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F23,Producten!$B$4:$B$983,0),X$1))</f>
         <v>KCB</v>
       </c>
       <c r="Y23" s="122">
-        <f>IF($F23 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F23,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F23 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F23,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>2.9</v>
       </c>
-      <c r="Z23" s="123">
-        <f>IF($F23 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F23,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z23" s="123" t="str">
+        <f>IF($F23 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F23,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221209</v>
       </c>
-      <c r="AA23" s="124" t="str">
-        <f>IF($F23 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F23,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA23" s="124">
+        <f>IF($F23 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F23,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221209</v>
       </c>
       <c r="AB23" s="120" t="str">
-        <f>IF($F23 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F23,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F23 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F23,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC23" s="120" t="str">
+        <f>IF($F23 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F23,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC23" s="120" t="str">
-        <f>IF($F23 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F23,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD23" s="120" t="str">
-        <f>IF($F23 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F23,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F23 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F23,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE23" s="6" t="str">
@@ -6763,7 +6786,7 @@
         <v>/kentekencard-bedrijfsvoorraad</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="136" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="126" t="s">
         <v>711</v>
       </c>
@@ -6848,39 +6871,39 @@
         <v>IVS</v>
       </c>
       <c r="X24" s="132" t="str">
-        <f>IF($F24 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F24,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F24 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F24,Producten!$B$4:$B$983,0),X$1))</f>
         <v>IVS-VRZ</v>
       </c>
       <c r="Y24" s="133">
-        <f>IF($F24 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F24,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F24 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F24,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z24" s="134">
-        <f>IF($F24 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F24,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z24" s="134" t="str">
+        <f>IF($F24 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F24,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30110506</v>
       </c>
-      <c r="AA24" s="135" t="str">
-        <f>IF($F24 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F24,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA24" s="135">
+        <f>IF($F24 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F24,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30110506</v>
+      </c>
+      <c r="AB24" s="131" t="str">
+        <f>IF($F24 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F24,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3917</v>
       </c>
-      <c r="AB24" s="131">
-        <f>IF($F24 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F24,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC24" s="131">
+        <f>IF($F24 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F24,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3917</v>
       </c>
-      <c r="AC24" s="131" t="str">
-        <f>IF($F24 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F24,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD24" s="131" t="str">
+        <f>IF($F24 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F24,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD24" s="131">
-        <f>IF($F24 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F24,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE24" s="6" t="str">
         <f>IF($E24 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E24,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/voertuiggegevens-erkenninghouder</v>
       </c>
     </row>
-    <row r="25" spans="1:31" s="125" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="115" t="s">
         <v>703</v>
       </c>
@@ -6967,39 +6990,39 @@
         <v>TPA</v>
       </c>
       <c r="X25" s="121" t="str">
-        <f>IF($F25 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F25,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F25 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F25,Producten!$B$4:$B$983,0),X$1))</f>
         <v>NAP</v>
       </c>
       <c r="Y25" s="122">
-        <f>IF($F25 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F25,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F25 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F25,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="123">
-        <f>IF($F25 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F25,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z25" s="123" t="str">
+        <f>IF($F25 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F25,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221504</v>
       </c>
-      <c r="AA25" s="124" t="str">
-        <f>IF($F25 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F25,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA25" s="124">
+        <f>IF($F25 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F25,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221504</v>
+      </c>
+      <c r="AB25" s="120" t="str">
+        <f>IF($F25 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F25,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>4216</v>
       </c>
-      <c r="AB25" s="120">
-        <f>IF($F25 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F25,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC25" s="120">
+        <f>IF($F25 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F25,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>4216</v>
       </c>
-      <c r="AC25" s="120" t="str">
-        <f>IF($F25 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F25,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD25" s="120" t="str">
+        <f>IF($F25 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F25,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD25" s="120">
-        <f>IF($F25 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F25,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>21</v>
       </c>
       <c r="AE25" s="6" t="str">
         <f>IF($E25 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E25,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/tellerrapport-aanvragen</v>
       </c>
     </row>
-    <row r="26" spans="1:31" s="136" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="126" t="s">
         <v>704</v>
       </c>
@@ -7084,31 +7107,31 @@
         <v>MIL</v>
       </c>
       <c r="X26" s="132" t="str">
-        <f>IF($F26 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F26,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F26 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F26,Producten!$B$4:$B$983,0),X$1))</f>
         <v>MIL-CTS</v>
       </c>
       <c r="Y26" s="133">
-        <f>IF($F26 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F26,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F26 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F26,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z26" s="134">
-        <f>IF($F26 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F26,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z26" s="134" t="str">
+        <f>IF($F26 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F26,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221502</v>
       </c>
-      <c r="AA26" s="135" t="str">
-        <f>IF($F26 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F26,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA26" s="135">
+        <f>IF($F26 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F26,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221502</v>
       </c>
       <c r="AB26" s="131" t="str">
-        <f>IF($F26 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F26,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F26 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F26,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC26" s="131" t="str">
+        <f>IF($F26 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F26,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC26" s="131" t="str">
-        <f>IF($F26 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F26,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD26" s="131" t="str">
-        <f>IF($F26 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F26,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F26 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F26,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE26" s="6" t="str">
@@ -7116,7 +7139,7 @@
         <v>/tellerstand-corrigeren</v>
       </c>
     </row>
-    <row r="27" spans="1:31" s="125" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="115" t="s">
         <v>705</v>
       </c>
@@ -7201,31 +7224,31 @@
         <v>MIL</v>
       </c>
       <c r="X27" s="121" t="str">
-        <f>IF($F27 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F27,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F27 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F27,Producten!$B$4:$B$983,0),X$1))</f>
         <v>MIL-OTS</v>
       </c>
       <c r="Y27" s="122">
-        <f>IF($F27 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F27,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F27 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F27,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z27" s="123">
-        <f>IF($F27 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F27,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z27" s="123" t="str">
+        <f>IF($F27 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F27,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221501</v>
       </c>
-      <c r="AA27" s="124" t="str">
-        <f>IF($F27 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F27,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA27" s="124">
+        <f>IF($F27 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F27,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221501</v>
       </c>
       <c r="AB27" s="120" t="str">
-        <f>IF($F27 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F27,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F27 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F27,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC27" s="120" t="str">
+        <f>IF($F27 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F27,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC27" s="120" t="str">
-        <f>IF($F27 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F27,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD27" s="120" t="str">
-        <f>IF($F27 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F27,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F27 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F27,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE27" s="6" t="str">
@@ -7233,7 +7256,7 @@
         <v>/tellerstand-opvoeren</v>
       </c>
     </row>
-    <row r="28" spans="1:31" s="136" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" s="136" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="126" t="s">
         <v>707</v>
       </c>
@@ -7320,31 +7343,31 @@
         <v>TDT</v>
       </c>
       <c r="X28" s="132" t="str">
-        <f>IF($F28 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F28,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F28 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F28,Producten!$B$4:$B$983,0),X$1))</f>
         <v>TDT-TIJD-DOC</v>
       </c>
       <c r="Y28" s="133">
-        <f>IF($F28 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F28,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F28 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F28,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z28" s="134">
-        <f>IF($F28 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F28,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z28" s="134" t="str">
+        <f>IF($F28 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F28,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221207</v>
       </c>
-      <c r="AA28" s="135" t="str">
-        <f>IF($F28 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F28,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA28" s="135">
+        <f>IF($F28 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F28,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221207</v>
       </c>
       <c r="AB28" s="131" t="str">
-        <f>IF($F28 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F28,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F28 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F28,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC28" s="131" t="str">
+        <f>IF($F28 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F28,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC28" s="131" t="str">
-        <f>IF($F28 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F28,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD28" s="131" t="str">
-        <f>IF($F28 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F28,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F28 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F28,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE28" s="6" t="str">
@@ -7352,7 +7375,7 @@
         <v>/tijdelijk-documentnummer-aanvragen</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="125" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="115" t="s">
         <v>709</v>
       </c>
@@ -7437,39 +7460,39 @@
         <v>IVS</v>
       </c>
       <c r="X29" s="121" t="str">
-        <f>IF($F29 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F29,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F29 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F29,Producten!$B$4:$B$983,0),X$1))</f>
         <v>IVS-VRZ</v>
       </c>
       <c r="Y29" s="122">
-        <f>IF($F29 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F29,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F29 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F29,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z29" s="123">
-        <f>IF($F29 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F29,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z29" s="123" t="str">
+        <f>IF($F29 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F29,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30110506</v>
       </c>
-      <c r="AA29" s="124" t="str">
-        <f>IF($F29 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F29,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA29" s="124">
+        <f>IF($F29 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F29,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30110506</v>
+      </c>
+      <c r="AB29" s="120" t="str">
+        <f>IF($F29 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F29,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3917</v>
       </c>
-      <c r="AB29" s="120">
-        <f>IF($F29 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F29,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC29" s="120">
+        <f>IF($F29 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F29,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3917</v>
       </c>
-      <c r="AC29" s="120" t="str">
-        <f>IF($F29 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F29,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD29" s="120" t="str">
+        <f>IF($F29 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F29,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD29" s="120">
-        <f>IF($F29 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F29,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE29" s="6" t="str">
         <f>IF($E29 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E29,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/voertuiggegevens-leasemaatschappij</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="136" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="126" t="s">
         <v>702</v>
       </c>
@@ -7556,31 +7579,31 @@
         <v>OTT</v>
       </c>
       <c r="X30" s="132" t="str">
-        <f>IF($F30 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F30,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F30 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F30,Producten!$B$4:$B$983,0),X$1))</f>
         <v>OTT-OPV</v>
       </c>
       <c r="Y30" s="133">
-        <f>IF($F30 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F30,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F30 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F30,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>5</v>
       </c>
-      <c r="Z30" s="134">
-        <f>IF($F30 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F30,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z30" s="134" t="str">
+        <f>IF($F30 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F30,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221210</v>
       </c>
-      <c r="AA30" s="135" t="str">
-        <f>IF($F30 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F30,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA30" s="135">
+        <f>IF($F30 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F30,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221210</v>
       </c>
       <c r="AB30" s="131" t="str">
-        <f>IF($F30 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F30,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F30 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F30,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC30" s="131" t="str">
+        <f>IF($F30 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F30,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC30" s="131" t="str">
-        <f>IF($F30 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F30,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD30" s="131" t="str">
-        <f>IF($F30 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F30,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F30 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F30,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE30" s="6" t="str">
@@ -7588,7 +7611,7 @@
         <v>/opdracht-tot-tenaamstellen-opvoeren</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="125" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="115" t="s">
         <v>293</v>
       </c>
@@ -7675,31 +7698,31 @@
         <v>OTT</v>
       </c>
       <c r="X31" s="121" t="str">
-        <f>IF($F31 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F31,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F31 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F31,Producten!$B$4:$B$983,0),X$1))</f>
         <v>OTT-WIJZ</v>
       </c>
       <c r="Y31" s="122">
-        <f>IF($F31 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F31,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F31 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F31,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="123">
-        <f>IF($F31 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F31,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z31" s="123" t="str">
+        <f>IF($F31 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F31,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221211</v>
       </c>
-      <c r="AA31" s="124" t="str">
-        <f>IF($F31 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F31,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA31" s="124">
+        <f>IF($F31 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F31,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221211</v>
       </c>
       <c r="AB31" s="120" t="str">
-        <f>IF($F31 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F31,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F31 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F31,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC31" s="120" t="str">
+        <f>IF($F31 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F31,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC31" s="120" t="str">
-        <f>IF($F31 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F31,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD31" s="120" t="str">
-        <f>IF($F31 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F31,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F31 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F31,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE31" s="6" t="str">
@@ -7707,7 +7730,7 @@
         <v>/opdracht-tot-tenaamstellen-wijzigen</v>
       </c>
     </row>
-    <row r="32" spans="1:31" s="136" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" s="136" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="126" t="s">
         <v>706</v>
       </c>
@@ -7794,31 +7817,31 @@
         <v>TDT</v>
       </c>
       <c r="X32" s="132" t="str">
-        <f>IF($F32 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F32,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F32 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F32,Producten!$B$4:$B$983,0),X$1))</f>
         <v>TDT-TEN</v>
       </c>
       <c r="Y32" s="133">
-        <f>IF($F32 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F32,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F32 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F32,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z32" s="134">
-        <f>IF($F32 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F32,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z32" s="134" t="str">
+        <f>IF($F32 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F32,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221208</v>
       </c>
-      <c r="AA32" s="135" t="str">
-        <f>IF($F32 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F32,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA32" s="135">
+        <f>IF($F32 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F32,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221208</v>
       </c>
       <c r="AB32" s="131" t="str">
-        <f>IF($F32 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F32,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F32 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F32,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC32" s="131" t="str">
+        <f>IF($F32 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F32,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC32" s="131" t="str">
-        <f>IF($F32 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F32,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD32" s="131" t="str">
-        <f>IF($F32 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F32,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F32 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F32,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE32" s="6" t="str">
@@ -7826,7 +7849,7 @@
         <v>/tenaamstellingscode-aanvragen</v>
       </c>
     </row>
-    <row r="33" spans="1:31" s="125" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="115" t="s">
         <v>402</v>
       </c>
@@ -7913,39 +7936,39 @@
         <v>IVS</v>
       </c>
       <c r="X33" s="121" t="str">
-        <f>IF($F33 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F33,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F33 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F33,Producten!$B$4:$B$983,0),X$1))</f>
         <v>IVS-VL-DTL-RTL</v>
       </c>
       <c r="Y33" s="122">
-        <f>IF($F33 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F33,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F33 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F33,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>90</v>
       </c>
-      <c r="Z33" s="123">
-        <f>IF($F33 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F33,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z33" s="123" t="str">
+        <f>IF($F33 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F33,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30112201</v>
       </c>
-      <c r="AA33" s="124" t="str">
-        <f>IF($F33 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F33,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA33" s="124">
+        <f>IF($F33 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F33,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30112201</v>
+      </c>
+      <c r="AB33" s="120" t="str">
+        <f>IF($F33 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F33,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>2417</v>
       </c>
-      <c r="AB33" s="120">
-        <f>IF($F33 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F33,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC33" s="120">
+        <f>IF($F33 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F33,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>2417</v>
       </c>
-      <c r="AC33" s="120" t="str">
-        <f>IF($F33 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F33,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD33" s="120" t="str">
+        <f>IF($F33 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F33,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD33" s="120">
-        <f>IF($F33 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F33,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE33" s="6" t="str">
         <f>IF($E33 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E33,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/wagenparkoverzicht-uitgebreid-leasemaatschappij</v>
       </c>
     </row>
-    <row r="34" spans="1:31" s="136" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="126" t="s">
         <v>716</v>
       </c>
@@ -8032,31 +8055,31 @@
         <v>VVB</v>
       </c>
       <c r="X34" s="132" t="str">
-        <f>IF($F34 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F34,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F34 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F34,Producten!$B$4:$B$983,0),X$1))</f>
         <v>VVB-OPV</v>
       </c>
       <c r="Y34" s="133">
-        <f>IF($F34 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F34,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F34 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F34,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z34" s="134">
-        <f>IF($F34 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F34,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z34" s="134" t="str">
+        <f>IF($F34 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F34,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221212</v>
       </c>
-      <c r="AA34" s="135" t="str">
-        <f>IF($F34 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F34,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA34" s="135">
+        <f>IF($F34 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F34,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221212</v>
       </c>
       <c r="AB34" s="131" t="str">
-        <f>IF($F34 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F34,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F34 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F34,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC34" s="131" t="str">
+        <f>IF($F34 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F34,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC34" s="131" t="str">
-        <f>IF($F34 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F34,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD34" s="131" t="str">
-        <f>IF($F34 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F34,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F34 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F34,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE34" s="6" t="str">
@@ -8064,7 +8087,7 @@
         <v>/verstrekkingsvoorbehoud-opvoeren</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="125" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="115" t="s">
         <v>294</v>
       </c>
@@ -8151,31 +8174,31 @@
         <v>VVB</v>
       </c>
       <c r="X35" s="121" t="str">
-        <f>IF($F35 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F35,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F35 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F35,Producten!$B$4:$B$983,0),X$1))</f>
         <v>VVB-VERW</v>
       </c>
       <c r="Y35" s="122">
-        <f>IF($F35 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F35,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F35 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F35,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z35" s="123">
-        <f>IF($F35 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F35,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z35" s="123" t="str">
+        <f>IF($F35 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F35,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221313</v>
       </c>
-      <c r="AA35" s="124" t="str">
-        <f>IF($F35 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F35,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA35" s="124">
+        <f>IF($F35 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F35,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221313</v>
       </c>
       <c r="AB35" s="120" t="str">
-        <f>IF($F35 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F35,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F35 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F35,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC35" s="120" t="str">
+        <f>IF($F35 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F35,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC35" s="120" t="str">
-        <f>IF($F35 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F35,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD35" s="120" t="str">
-        <f>IF($F35 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F35,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F35 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F35,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE35" s="6" t="str">
@@ -8183,7 +8206,7 @@
         <v>/verstrekkingsvoorbehoud-verwijderen</v>
       </c>
     </row>
-    <row r="36" spans="1:31" s="136" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="126" t="s">
         <v>133</v>
       </c>
@@ -8270,39 +8293,39 @@
         <v>BGR</v>
       </c>
       <c r="X36" s="132" t="str">
-        <f>IF($F36 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F36,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F36 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F36,Producten!$B$4:$B$983,0),X$1))</f>
         <v>BGRRequestCoachingPass</v>
       </c>
       <c r="Y36" s="133">
-        <f>IF($F36 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F36,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F36 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F36,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>35</v>
       </c>
-      <c r="Z36" s="134">
-        <f>IF($F36 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F36,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z36" s="134" t="str">
+        <f>IF($F36 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F36,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30440107</v>
       </c>
-      <c r="AA36" s="135" t="str">
-        <f>IF($F36 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F36,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA36" s="135">
+        <f>IF($F36 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F36,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30440107</v>
+      </c>
+      <c r="AB36" s="131" t="str">
+        <f>IF($F36 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F36,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3813</v>
       </c>
-      <c r="AB36" s="131">
-        <f>IF($F36 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F36,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC36" s="131">
+        <f>IF($F36 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F36,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3813</v>
       </c>
-      <c r="AC36" s="131" t="str">
-        <f>IF($F36 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F36,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD36" s="131" t="str">
+        <f>IF($F36 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F36,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z35</v>
-      </c>
-      <c r="AD36" s="131">
-        <f>IF($F36 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F36,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE36" s="6" t="str">
         <f>IF($E36 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E36,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/aanvragen-begeleiderspas</v>
       </c>
     </row>
-    <row r="37" spans="1:31" s="125" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="115" t="s">
         <v>696</v>
       </c>
@@ -8389,31 +8412,31 @@
         <v>BGR</v>
       </c>
       <c r="X37" s="121" t="str">
-        <f>IF($F37 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F37,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F37 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F37,Producten!$B$4:$B$983,0),X$1))</f>
         <v>BGRRegisterCoach</v>
       </c>
       <c r="Y37" s="122">
-        <f>IF($F37 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F37,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F37 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F37,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z37" s="123">
-        <f>IF($F37 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F37,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z37" s="123" t="str">
+        <f>IF($F37 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F37,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30440106</v>
       </c>
-      <c r="AA37" s="124" t="str">
-        <f>IF($F37 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F37,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA37" s="124">
+        <f>IF($F37 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F37,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30440106</v>
       </c>
       <c r="AB37" s="120" t="str">
-        <f>IF($F37 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F37,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F37 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F37,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC37" s="120" t="str">
+        <f>IF($F37 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F37,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC37" s="120" t="str">
-        <f>IF($F37 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F37,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD37" s="120" t="str">
-        <f>IF($F37 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F37,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F37 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F37,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE37" s="6" t="str">
@@ -8421,7 +8444,7 @@
         <v>/aanmelden-begeleider</v>
       </c>
     </row>
-    <row r="38" spans="1:31" s="136" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="126" t="s">
         <v>719</v>
       </c>
@@ -8508,31 +8531,31 @@
         <v>DEM</v>
       </c>
       <c r="X38" s="132" t="str">
-        <f>IF($F38 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F38,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F38 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F38,Producten!$B$4:$B$983,0),X$1))</f>
         <v>DEM-BUR</v>
       </c>
       <c r="Y38" s="133">
-        <f>IF($F38 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F38,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F38 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F38,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z38" s="134">
-        <f>IF($F38 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F38,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z38" s="134" t="str">
+        <f>IF($F38 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F38,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221204</v>
       </c>
-      <c r="AA38" s="135" t="str">
-        <f>IF($F38 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F38,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA38" s="135">
+        <f>IF($F38 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F38,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221204</v>
       </c>
       <c r="AB38" s="131" t="str">
-        <f>IF($F38 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F38,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F38 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F38,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC38" s="131" t="str">
+        <f>IF($F38 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F38,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC38" s="131" t="str">
-        <f>IF($F38 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F38,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD38" s="131" t="str">
-        <f>IF($F38 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F38,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F38 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F38,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE38" s="6" t="str">
@@ -8540,7 +8563,7 @@
         <v>/aanvragen-demontagecode-burger</v>
       </c>
     </row>
-    <row r="39" spans="1:31" s="125" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="115" t="s">
         <v>700</v>
       </c>
@@ -8625,31 +8648,31 @@
         <v>-</v>
       </c>
       <c r="X39" s="121" t="str">
-        <f>IF($F39 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F39,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F39 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F39,Producten!$B$4:$B$983,0),X$1))</f>
         <v/>
       </c>
       <c r="Y39" s="122" t="str">
-        <f>IF($F39 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F39,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F39 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F39,Producten!$B$4:$B$983,0),Y$1))</f>
         <v/>
       </c>
       <c r="Z39" s="123" t="str">
-        <f>IF($F39 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F39,Producten!$B$4:$B$983,0),Z$1))</f>
+        <f>IF($F39 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F39,Producten!$B$4:$B$983,0),Z$1))</f>
         <v/>
       </c>
       <c r="AA39" s="124" t="str">
-        <f>IF($F39 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F39,Producten!$B$4:$B$983,0),AA$1))</f>
+        <f>IF($F39 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F39,Producten!$B$4:$B$983,0),AA$1))</f>
         <v/>
       </c>
       <c r="AB39" s="120" t="str">
-        <f>IF($F39 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F39,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F39 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F39,Producten!$B$4:$B$983,0),AB$1))</f>
         <v/>
       </c>
       <c r="AC39" s="120" t="str">
-        <f>IF($F39 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F39,Producten!$B$4:$B$983,0),AC$1))</f>
+        <f>IF($F39 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F39,Producten!$B$4:$B$983,0),AC$1))</f>
         <v/>
       </c>
       <c r="AD39" s="120" t="str">
-        <f>IF($F39 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F39,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F39 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F39,Producten!$B$4:$B$983,0),AD$1))</f>
         <v/>
       </c>
       <c r="AE39" s="6" t="str">
@@ -8657,7 +8680,7 @@
         <v>/documentnummer</v>
       </c>
     </row>
-    <row r="40" spans="1:31" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="126" t="s">
         <v>698</v>
       </c>
@@ -8742,31 +8765,31 @@
         <v>-</v>
       </c>
       <c r="X40" s="132" t="str">
-        <f>IF($F40 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F40,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F40 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F40,Producten!$B$4:$B$983,0),X$1))</f>
         <v/>
       </c>
       <c r="Y40" s="133" t="str">
-        <f>IF($F40 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F40,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F40 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F40,Producten!$B$4:$B$983,0),Y$1))</f>
         <v/>
       </c>
       <c r="Z40" s="134" t="str">
-        <f>IF($F40 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F40,Producten!$B$4:$B$983,0),Z$1))</f>
+        <f>IF($F40 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F40,Producten!$B$4:$B$983,0),Z$1))</f>
         <v/>
       </c>
       <c r="AA40" s="135" t="str">
-        <f>IF($F40 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F40,Producten!$B$4:$B$983,0),AA$1))</f>
+        <f>IF($F40 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F40,Producten!$B$4:$B$983,0),AA$1))</f>
         <v/>
       </c>
       <c r="AB40" s="131" t="str">
-        <f>IF($F40 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F40,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F40 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F40,Producten!$B$4:$B$983,0),AB$1))</f>
         <v/>
       </c>
       <c r="AC40" s="131" t="str">
-        <f>IF($F40 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F40,Producten!$B$4:$B$983,0),AC$1))</f>
+        <f>IF($F40 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F40,Producten!$B$4:$B$983,0),AC$1))</f>
         <v/>
       </c>
       <c r="AD40" s="131" t="str">
-        <f>IF($F40 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F40,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F40 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F40,Producten!$B$4:$B$983,0),AD$1))</f>
         <v/>
       </c>
       <c r="AE40" s="6" t="str">
@@ -8774,7 +8797,7 @@
         <v>/documentnummer-tenaamstellingscode</v>
       </c>
     </row>
-    <row r="41" spans="1:31" s="125" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" s="125" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="115" t="s">
         <v>699</v>
       </c>
@@ -8861,39 +8884,39 @@
         <v>EKB</v>
       </c>
       <c r="X41" s="121" t="str">
-        <f>IF($F41 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F41,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F41 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F41,Producten!$B$4:$B$983,0),X$1))</f>
         <v>EKB2</v>
       </c>
       <c r="Y41" s="122">
-        <f>IF($F41 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F41,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F41 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F41,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z41" s="123">
-        <f>IF($F41 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F41,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z41" s="123" t="str">
+        <f>IF($F41 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F41,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30211213</v>
       </c>
-      <c r="AA41" s="124" t="str">
-        <f>IF($F41 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F41,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA41" s="124">
+        <f>IF($F41 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F41,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30211213</v>
+      </c>
+      <c r="AB41" s="120" t="str">
+        <f>IF($F41 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F41,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3174</v>
       </c>
-      <c r="AB41" s="120">
-        <f>IF($F41 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F41,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC41" s="120">
+        <f>IF($F41 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F41,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3174</v>
       </c>
-      <c r="AC41" s="120" t="str">
-        <f>IF($F41 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F41,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD41" s="120" t="str">
+        <f>IF($F41 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F41,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z50</v>
-      </c>
-      <c r="AD41" s="120">
-        <f>IF($F41 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F41,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE41" s="6" t="str">
         <f>IF($E41 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E41,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/eendagskentekenbewijs</v>
       </c>
     </row>
-    <row r="42" spans="1:31" s="136" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="126" t="s">
         <v>715</v>
       </c>
@@ -8980,31 +9003,31 @@
         <v>PAS-KOS</v>
       </c>
       <c r="X42" s="132" t="str">
-        <f>IF($F42 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F42,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F42 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F42,Producten!$B$4:$B$983,0),X$1))</f>
         <v>diverse (PAS2-*)</v>
       </c>
       <c r="Y42" s="133" t="str">
-        <f>IF($F42 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F42,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F42 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F42,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>diverse</v>
       </c>
       <c r="Z42" s="134" t="str">
-        <f>IF($F42 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F42,Producten!$B$4:$B$983,0),Z$1))</f>
+        <f>IF($F42 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F42,Producten!$B$4:$B$983,0),Z$1))</f>
+        <v/>
+      </c>
+      <c r="AA42" s="135" t="str">
+        <f>IF($F42 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F42,Producten!$B$4:$B$983,0),AA$1))</f>
         <v>-</v>
       </c>
-      <c r="AA42" s="135" t="str">
-        <f>IF($F42 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F42,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
-      </c>
       <c r="AB42" s="131" t="str">
-        <f>IF($F42 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F42,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F42 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F42,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC42" s="131" t="str">
+        <f>IF($F42 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F42,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC42" s="131" t="str">
-        <f>IF($F42 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F42,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD42" s="131" t="str">
-        <f>IF($F42 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F42,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F42 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F42,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE42" s="6" t="str">
@@ -9012,7 +9035,7 @@
         <v>/keuringsafspraak-burger-op-station</v>
       </c>
     </row>
-    <row r="43" spans="1:31" s="125" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="115" t="s">
         <v>712</v>
       </c>
@@ -9099,39 +9122,39 @@
         <v>IVS</v>
       </c>
       <c r="X43" s="121" t="str">
-        <f>IF($F43 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F43,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F43 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F43,Producten!$B$4:$B$983,0),X$1))</f>
         <v>IVS-VR</v>
       </c>
       <c r="Y43" s="122">
-        <f>IF($F43 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F43,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F43 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F43,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="Z43" s="123">
-        <f>IF($F43 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F43,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z43" s="123" t="str">
+        <f>IF($F43 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F43,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30110506</v>
       </c>
-      <c r="AA43" s="124" t="str">
-        <f>IF($F43 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F43,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA43" s="124">
+        <f>IF($F43 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F43,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30110506</v>
+      </c>
+      <c r="AB43" s="120" t="str">
+        <f>IF($F43 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F43,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3917</v>
       </c>
-      <c r="AB43" s="120">
-        <f>IF($F43 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F43,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC43" s="120">
+        <f>IF($F43 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F43,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3917</v>
       </c>
-      <c r="AC43" s="120" t="str">
-        <f>IF($F43 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F43,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD43" s="120" t="str">
+        <f>IF($F43 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F43,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD43" s="120">
-        <f>IF($F43 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F43,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE43" s="6" t="str">
         <f>IF($E43 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E43,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/voertuiggegevens-burger</v>
       </c>
     </row>
-    <row r="44" spans="1:31" s="136" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="126" t="s">
         <v>729</v>
       </c>
@@ -9216,31 +9239,31 @@
         <v>-</v>
       </c>
       <c r="X44" s="132" t="str">
-        <f>IF($F44 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F44,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F44 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F44,Producten!$B$4:$B$983,0),X$1))</f>
         <v/>
       </c>
       <c r="Y44" s="133" t="str">
-        <f>IF($F44 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F44,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F44 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F44,Producten!$B$4:$B$983,0),Y$1))</f>
         <v/>
       </c>
       <c r="Z44" s="134" t="str">
-        <f>IF($F44 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F44,Producten!$B$4:$B$983,0),Z$1))</f>
+        <f>IF($F44 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F44,Producten!$B$4:$B$983,0),Z$1))</f>
         <v/>
       </c>
       <c r="AA44" s="135" t="str">
-        <f>IF($F44 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F44,Producten!$B$4:$B$983,0),AA$1))</f>
+        <f>IF($F44 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F44,Producten!$B$4:$B$983,0),AA$1))</f>
         <v/>
       </c>
       <c r="AB44" s="131" t="str">
-        <f>IF($F44 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F44,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F44 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F44,Producten!$B$4:$B$983,0),AB$1))</f>
         <v/>
       </c>
       <c r="AC44" s="131" t="str">
-        <f>IF($F44 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F44,Producten!$B$4:$B$983,0),AC$1))</f>
+        <f>IF($F44 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F44,Producten!$B$4:$B$983,0),AC$1))</f>
         <v/>
       </c>
       <c r="AD44" s="131" t="str">
-        <f>IF($F44 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F44,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F44 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F44,Producten!$B$4:$B$983,0),AD$1))</f>
         <v/>
       </c>
       <c r="AE44" s="6">
@@ -9248,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31" s="125" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="115" t="s">
         <v>285</v>
       </c>
@@ -9335,39 +9358,39 @@
         <v>VVK2</v>
       </c>
       <c r="X45" s="121" t="str">
-        <f>IF($F45 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F45,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F45 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F45,Producten!$B$4:$B$983,0),X$1))</f>
         <v>VVK-OPP-BUR</v>
       </c>
       <c r="Y45" s="122">
-        <f>IF($F45 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F45,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F45 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F45,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>9.6999999999999993</v>
       </c>
-      <c r="Z45" s="123">
-        <f>IF($F45 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F45,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z45" s="123" t="str">
+        <f>IF($F45 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F45,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30231105</v>
       </c>
-      <c r="AA45" s="124" t="str">
-        <f>IF($F45 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F45,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA45" s="124">
+        <f>IF($F45 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F45,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30231105</v>
+      </c>
+      <c r="AB45" s="120" t="str">
+        <f>IF($F45 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F45,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>4227</v>
       </c>
-      <c r="AB45" s="120">
-        <f>IF($F45 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F45,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC45" s="120">
+        <f>IF($F45 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F45,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>4227</v>
       </c>
-      <c r="AC45" s="120" t="str">
-        <f>IF($F45 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F45,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD45" s="120" t="str">
+        <f>IF($F45 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F45,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z04</v>
-      </c>
-      <c r="AD45" s="120">
-        <f>IF($F45 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F45,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE45" s="6" t="str">
         <f>IF($E45 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E45,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/omwisselen-papieren-kentekenbewijs</v>
       </c>
     </row>
-    <row r="46" spans="1:31" s="136" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" s="136" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="126" t="s">
         <v>789</v>
       </c>
@@ -9454,7 +9477,7 @@
         <v>SCH</v>
       </c>
       <c r="X46" s="132" t="str">
-        <f>IF($F46 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F46,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F46 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F46,Producten!$B$4:$B$983,0),X$1))</f>
         <v>SCH6,
 SCH2,
 SCH1,
@@ -9462,7 +9485,7 @@
 SCH3</v>
       </c>
       <c r="Y46" s="133" t="str">
-        <f>IF($F46 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F46,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F46 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F46,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>11,-
 24,-
 73,-
@@ -9470,7 +9493,7 @@
 0,-</v>
       </c>
       <c r="Z46" s="134" t="str">
-        <f>IF($F46 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F46,Producten!$B$4:$B$983,0),Z$1))</f>
+        <f>IF($F46 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F46,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30223111, 
 30223117, 
 30223116, 
@@ -9478,28 +9501,32 @@
 30223108</v>
       </c>
       <c r="AA46" s="135" t="str">
-        <f>IF($F46 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F46,Producten!$B$4:$B$983,0),AA$1))</f>
+        <f>IF($F46 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F46,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30223111, 
+30223117, 
+30223116, 
+30223118,  
+30223108</v>
+      </c>
+      <c r="AB46" s="131" t="str">
+        <f>IF($F46 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F46,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3925,
 3923,
 3922,
 3924,
 -</v>
       </c>
-      <c r="AB46" s="131" t="str">
-        <f>IF($F46 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F46,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC46" s="131" t="str">
+        <f>IF($F46 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F46,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3925,
 3923,
 3922,
 3924,
 -</v>
       </c>
-      <c r="AC46" s="131" t="str">
-        <f>IF($F46 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F46,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD46" s="131" t="str">
+        <f>IF($F46 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F46,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z43</v>
-      </c>
-      <c r="AD46" s="131">
-        <f>IF($F46 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F46,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE46" s="6" t="str">
         <f>IF($E46 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E46,Webdiensten!$A$2:$A$991,0),AE$1))</f>
@@ -9593,31 +9620,31 @@
         <v>SCH</v>
       </c>
       <c r="X47" s="121" t="str">
-        <f>IF($F47 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F47,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F47 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F47,Producten!$B$4:$B$983,0),X$1))</f>
         <v>SCH5</v>
       </c>
       <c r="Y47" s="122">
-        <f>IF($F47 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F47,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F47 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F47,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z47" s="123">
-        <f>IF($F47 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F47,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z47" s="123" t="str">
+        <f>IF($F47 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F47,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30223110</v>
       </c>
-      <c r="AA47" s="124" t="str">
-        <f>IF($F47 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F47,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA47" s="124">
+        <f>IF($F47 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F47,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30223110</v>
       </c>
       <c r="AB47" s="120" t="str">
-        <f>IF($F47 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F47,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F47 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F47,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC47" s="120" t="str">
+        <f>IF($F47 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F47,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC47" s="120" t="str">
-        <f>IF($F47 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F47,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD47" s="120" t="str">
-        <f>IF($F47 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F47,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F47 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F47,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE47" s="6" t="str">
@@ -9625,7 +9652,7 @@
         <v>/schorsing-opheffen</v>
       </c>
     </row>
-    <row r="48" spans="1:31" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="126" t="s">
         <v>697</v>
       </c>
@@ -9710,31 +9737,31 @@
         <v>-</v>
       </c>
       <c r="X48" s="132" t="str">
-        <f>IF($F48 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F48,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F48 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F48,Producten!$B$4:$B$983,0),X$1))</f>
         <v/>
       </c>
       <c r="Y48" s="133" t="str">
-        <f>IF($F48 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F48,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F48 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F48,Producten!$B$4:$B$983,0),Y$1))</f>
         <v/>
       </c>
       <c r="Z48" s="134" t="str">
-        <f>IF($F48 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F48,Producten!$B$4:$B$983,0),Z$1))</f>
+        <f>IF($F48 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F48,Producten!$B$4:$B$983,0),Z$1))</f>
         <v/>
       </c>
       <c r="AA48" s="135" t="str">
-        <f>IF($F48 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F48,Producten!$B$4:$B$983,0),AA$1))</f>
+        <f>IF($F48 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F48,Producten!$B$4:$B$983,0),AA$1))</f>
         <v/>
       </c>
       <c r="AB48" s="131" t="str">
-        <f>IF($F48 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F48,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F48 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F48,Producten!$B$4:$B$983,0),AB$1))</f>
         <v/>
       </c>
       <c r="AC48" s="131" t="str">
-        <f>IF($F48 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F48,Producten!$B$4:$B$983,0),AC$1))</f>
+        <f>IF($F48 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F48,Producten!$B$4:$B$983,0),AC$1))</f>
         <v/>
       </c>
       <c r="AD48" s="131" t="str">
-        <f>IF($F48 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F48,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F48 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F48,Producten!$B$4:$B$983,0),AD$1))</f>
         <v/>
       </c>
       <c r="AE48" s="6" t="str">
@@ -9742,7 +9769,7 @@
         <v>/tellerrapport-controleren</v>
       </c>
     </row>
-    <row r="49" spans="1:31" s="125" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="115" t="s">
         <v>728</v>
       </c>
@@ -9829,39 +9856,39 @@
         <v>TSC</v>
       </c>
       <c r="X49" s="121" t="str">
-        <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F49,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F49,Producten!$B$4:$B$983,0),X$1))</f>
         <v>TSC</v>
       </c>
       <c r="Y49" s="122">
-        <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F49,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F49,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>2.99</v>
       </c>
-      <c r="Z49" s="123">
-        <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F49,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z49" s="123" t="str">
+        <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F49,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30110507</v>
       </c>
-      <c r="AA49" s="124" t="str">
-        <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F49,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA49" s="124">
+        <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F49,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30110507</v>
+      </c>
+      <c r="AB49" s="120" t="str">
+        <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F49,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>4218</v>
       </c>
-      <c r="AB49" s="120">
-        <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F49,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC49" s="120">
+        <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F49,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>4218</v>
       </c>
-      <c r="AC49" s="120" t="str">
-        <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F49,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD49" s="120" t="str">
+        <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F49,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD49" s="120">
-        <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F49,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE49" s="6" t="str">
         <f>IF($E49 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E49,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/Tellerstandcontrole</v>
       </c>
     </row>
-    <row r="50" spans="1:31" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="126" t="s">
         <v>725</v>
       </c>
@@ -9948,39 +9975,39 @@
         <v>GUR</v>
       </c>
       <c r="X50" s="132" t="str">
-        <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F50,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F50,Producten!$B$4:$B$983,0),X$1))</f>
         <v>GUR</v>
       </c>
       <c r="Y50" s="133">
-        <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F50,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F50,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>4.5</v>
       </c>
-      <c r="Z50" s="134">
-        <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F50,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z50" s="134" t="str">
+        <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F50,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221204</v>
       </c>
-      <c r="AA50" s="135" t="str">
-        <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F50,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA50" s="135">
+        <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F50,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221204</v>
+      </c>
+      <c r="AB50" s="131" t="str">
+        <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F50,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3958</v>
       </c>
-      <c r="AB50" s="131">
-        <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F50,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC50" s="131">
+        <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F50,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3958</v>
       </c>
-      <c r="AC50" s="131" t="str">
-        <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F50,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD50" s="131" t="str">
+        <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F50,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD50" s="131">
-        <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F50,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE50" s="6" t="str">
         <f>IF($E50 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E50,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/gewaarmerkt-uittreksel-rijbewijsregister</v>
       </c>
     </row>
-    <row r="51" spans="1:31" s="125" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="115" t="s">
         <v>128</v>
       </c>
@@ -10067,39 +10094,39 @@
         <v>IVS</v>
       </c>
       <c r="X51" s="121" t="str">
-        <f>IF($F51 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F51,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F51 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F51,Producten!$B$4:$B$983,0),X$1))</f>
         <v>IVS-INZ</v>
       </c>
       <c r="Y51" s="122">
-        <f>IF($F51 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F51,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F51 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F51,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>4.5</v>
       </c>
-      <c r="Z51" s="123">
-        <f>IF($F51 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F51,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z51" s="123" t="str">
+        <f>IF($F51 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F51,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30110501</v>
       </c>
-      <c r="AA51" s="124" t="str">
-        <f>IF($F51 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F51,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA51" s="124">
+        <f>IF($F51 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F51,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30110501</v>
+      </c>
+      <c r="AB51" s="120" t="str">
+        <f>IF($F51 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F51,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>2396</v>
       </c>
-      <c r="AB51" s="120">
-        <f>IF($F51 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F51,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC51" s="120">
+        <f>IF($F51 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F51,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>2396</v>
       </c>
-      <c r="AC51" s="120" t="str">
-        <f>IF($F51 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F51,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD51" s="120" t="str">
+        <f>IF($F51 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F51,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD51" s="120">
-        <f>IF($F51 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F51,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE51" s="6" t="str">
         <f>IF($E51 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E51,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/inzage-eigengegevens</v>
       </c>
     </row>
-    <row r="52" spans="1:31" s="136" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="126" t="s">
         <v>793</v>
       </c>
@@ -10186,39 +10213,39 @@
         <v>VVK2</v>
       </c>
       <c r="X52" s="132" t="str">
-        <f>IF($F52 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F52,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F52 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F52,Producten!$B$4:$B$983,0),X$1))</f>
         <v>VVK-KEN-TEN-BUR</v>
       </c>
       <c r="Y52" s="133">
-        <f>IF($F52 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F52,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F52 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F52,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>31.5</v>
       </c>
-      <c r="Z52" s="134">
-        <f>IF($F52 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F52,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z52" s="134" t="str">
+        <f>IF($F52 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F52,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221201</v>
       </c>
-      <c r="AA52" s="135" t="str">
-        <f>IF($F52 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F52,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA52" s="135">
+        <f>IF($F52 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F52,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221201</v>
+      </c>
+      <c r="AB52" s="131" t="str">
+        <f>IF($F52 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F52,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3902</v>
       </c>
-      <c r="AB52" s="131">
-        <f>IF($F52 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F52,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC52" s="131">
+        <f>IF($F52 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F52,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3902</v>
       </c>
-      <c r="AC52" s="131" t="str">
-        <f>IF($F52 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F52,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD52" s="131" t="str">
+        <f>IF($F52 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F52,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z04</v>
-      </c>
-      <c r="AD52" s="131">
-        <f>IF($F52 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F52,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE52" s="6" t="str">
         <f>IF($E52 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E52,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/kentekenbewijs-aanvragen-particulier</v>
       </c>
     </row>
-    <row r="53" spans="1:31" s="125" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" s="125" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="115" t="s">
         <v>818</v>
       </c>
@@ -10305,39 +10332,39 @@
         <v>DTS</v>
       </c>
       <c r="X53" s="121" t="str">
-        <f>IF($F53 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F53,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F53 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F53,Producten!$B$4:$B$983,0),X$1))</f>
         <v>DTS</v>
       </c>
       <c r="Y53" s="122">
-        <f>IF($F53 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F53,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F53 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F53,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>9.83</v>
       </c>
-      <c r="Z53" s="123">
-        <f>IF($F53 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F53,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z53" s="123" t="str">
+        <f>IF($F53 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F53,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30220302</v>
       </c>
-      <c r="AA53" s="124" t="str">
-        <f>IF($F53 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F53,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA53" s="124">
+        <f>IF($F53 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F53,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30220302</v>
+      </c>
+      <c r="AB53" s="120" t="str">
+        <f>IF($F53 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F53,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3927</v>
       </c>
-      <c r="AB53" s="120">
-        <f>IF($F53 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F53,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC53" s="120">
+        <f>IF($F53 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F53,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3927</v>
       </c>
-      <c r="AC53" s="120" t="str">
-        <f>IF($F53 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F53,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD53" s="120" t="str">
+        <f>IF($F53 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F53,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z43</v>
-      </c>
-      <c r="AD53" s="120">
-        <f>IF($F53 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F53,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE53" s="6">
         <f>IF($E53 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E53,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" s="136" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" s="136" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="126" t="s">
         <v>717</v>
       </c>
@@ -10424,31 +10451,31 @@
         <v>DEM</v>
       </c>
       <c r="X54" s="132" t="str">
-        <f>IF($F54 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F54,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F54 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F54,Producten!$B$4:$B$983,0),X$1))</f>
         <v>DEM-OVE</v>
       </c>
       <c r="Y54" s="133">
-        <f>IF($F54 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F54,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F54 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F54,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z54" s="134">
-        <f>IF($F54 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F54,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z54" s="134" t="str">
+        <f>IF($F54 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F54,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30221204</v>
       </c>
-      <c r="AA54" s="135" t="str">
-        <f>IF($F54 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F54,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v/>
+      <c r="AA54" s="135">
+        <f>IF($F54 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F54,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30221204</v>
       </c>
       <c r="AB54" s="131" t="str">
-        <f>IF($F54 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F54,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F54 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F54,Producten!$B$4:$B$983,0),AB$1))</f>
+        <v/>
+      </c>
+      <c r="AC54" s="131" t="str">
+        <f>IF($F54 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F54,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>-</v>
       </c>
-      <c r="AC54" s="131" t="str">
-        <f>IF($F54 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F54,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>-</v>
-      </c>
       <c r="AD54" s="131" t="str">
-        <f>IF($F54 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F54,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F54 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F54,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>-</v>
       </c>
       <c r="AE54" s="6" t="str">
@@ -10456,7 +10483,7 @@
         <v>/aanvragen-demontagecode-overheid</v>
       </c>
     </row>
-    <row r="55" spans="1:31" s="125" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="115" t="s">
         <v>721</v>
       </c>
@@ -10543,39 +10570,39 @@
         <v>IVS</v>
       </c>
       <c r="X55" s="121" t="str">
-        <f>IF($F55 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F55,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F55 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F55,Producten!$B$4:$B$983,0),X$1))</f>
         <v>IVS-SHP-0001</v>
       </c>
       <c r="Y55" s="122">
-        <f>IF($F55 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F55,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F55 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F55,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z55" s="123">
-        <f>IF($F55 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F55,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z55" s="123" t="str">
+        <f>IF($F55 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F55,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30500101</v>
       </c>
-      <c r="AA55" s="124" t="str">
-        <f>IF($F55 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F55,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA55" s="124">
+        <f>IF($F55 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F55,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30500101</v>
+      </c>
+      <c r="AB55" s="120" t="str">
+        <f>IF($F55 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F55,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3853</v>
       </c>
-      <c r="AB55" s="120">
-        <f>IF($F55 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F55,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC55" s="120">
+        <f>IF($F55 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F55,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3853</v>
       </c>
-      <c r="AC55" s="120" t="str">
-        <f>IF($F55 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F55,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD55" s="120" t="str">
+        <f>IF($F55 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F55,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD55" s="120">
-        <f>IF($F55 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F55,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE55" s="6" t="str">
         <f>IF($E55 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E55,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/dagrapportage-parkeergelden</v>
       </c>
     </row>
-    <row r="56" spans="1:31" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="126" t="s">
         <v>722</v>
       </c>
@@ -10662,39 +10689,39 @@
         <v>IVS</v>
       </c>
       <c r="X56" s="132" t="str">
-        <f>IF($F56 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F56,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F56 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F56,Producten!$B$4:$B$983,0),X$1))</f>
         <v>IVS-SHP-0002</v>
       </c>
       <c r="Y56" s="133">
-        <f>IF($F56 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F56,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F56 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F56,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z56" s="134">
-        <f>IF($F56 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F56,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z56" s="134" t="str">
+        <f>IF($F56 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F56,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30500102</v>
       </c>
-      <c r="AA56" s="135" t="str">
-        <f>IF($F56 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F56,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA56" s="135">
+        <f>IF($F56 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F56,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30500102</v>
+      </c>
+      <c r="AB56" s="131" t="str">
+        <f>IF($F56 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F56,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3854</v>
       </c>
-      <c r="AB56" s="131">
-        <f>IF($F56 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F56,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC56" s="131">
+        <f>IF($F56 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F56,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3854</v>
       </c>
-      <c r="AC56" s="131" t="str">
-        <f>IF($F56 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F56,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD56" s="131" t="str">
+        <f>IF($F56 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F56,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD56" s="131">
-        <f>IF($F56 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F56,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE56" s="6" t="str">
         <f>IF($E56 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E56,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/te-laat-aangeleverde-rechten</v>
       </c>
     </row>
-    <row r="57" spans="1:31" s="125" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="115" t="s">
         <v>723</v>
       </c>
@@ -10781,39 +10808,39 @@
         <v>IVS</v>
       </c>
       <c r="X57" s="121" t="str">
-        <f>IF($F57 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F57,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F57 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F57,Producten!$B$4:$B$983,0),X$1))</f>
         <v>IVS-SHP-0003</v>
       </c>
       <c r="Y57" s="122">
-        <f>IF($F57 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F57,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F57 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F57,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z57" s="123">
-        <f>IF($F57 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F57,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z57" s="123" t="str">
+        <f>IF($F57 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F57,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30500103</v>
       </c>
-      <c r="AA57" s="124" t="str">
-        <f>IF($F57 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F57,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA57" s="124">
+        <f>IF($F57 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F57,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30500103</v>
+      </c>
+      <c r="AB57" s="120" t="str">
+        <f>IF($F57 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F57,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3855</v>
       </c>
-      <c r="AB57" s="120">
-        <f>IF($F57 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F57,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC57" s="120">
+        <f>IF($F57 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F57,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3855</v>
       </c>
-      <c r="AC57" s="120" t="str">
-        <f>IF($F57 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F57,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD57" s="120" t="str">
+        <f>IF($F57 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F57,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD57" s="120">
-        <f>IF($F57 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F57,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE57" s="6" t="str">
         <f>IF($E57 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E57,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/te-laat-afgesloten-rechten</v>
       </c>
     </row>
-    <row r="58" spans="1:31" s="136" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="126" t="s">
         <v>724</v>
       </c>
@@ -10900,39 +10927,39 @@
         <v>IVS</v>
       </c>
       <c r="X58" s="132" t="str">
-        <f>IF($F58 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F58,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F58 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F58,Producten!$B$4:$B$983,0),X$1))</f>
         <v>IVS-SHP-0004</v>
       </c>
       <c r="Y58" s="133">
-        <f>IF($F58 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F58,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F58 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F58,Producten!$B$4:$B$983,0),Y$1))</f>
         <v>0</v>
       </c>
-      <c r="Z58" s="134">
-        <f>IF($F58 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F58,Producten!$B$4:$B$983,0),Z$1))</f>
+      <c r="Z58" s="134" t="str">
+        <f>IF($F58 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F58,Producten!$B$4:$B$983,0),Z$1))</f>
         <v>30500104</v>
       </c>
-      <c r="AA58" s="135" t="str">
-        <f>IF($F58 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F58,Producten!$B$4:$B$983,0),AA$1))</f>
+      <c r="AA58" s="135">
+        <f>IF($F58 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F58,Producten!$B$4:$B$983,0),AA$1))</f>
+        <v>30500104</v>
+      </c>
+      <c r="AB58" s="131" t="str">
+        <f>IF($F58 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F58,Producten!$B$4:$B$983,0),AB$1))</f>
         <v>3856</v>
       </c>
-      <c r="AB58" s="131">
-        <f>IF($F58 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F58,Producten!$B$4:$B$983,0),AB$1))</f>
+      <c r="AC58" s="131">
+        <f>IF($F58 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F58,Producten!$B$4:$B$983,0),AC$1))</f>
         <v>3856</v>
       </c>
-      <c r="AC58" s="131" t="str">
-        <f>IF($F58 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F58,Producten!$B$4:$B$983,0),AC$1))</f>
+      <c r="AD58" s="131" t="str">
+        <f>IF($F58 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F58,Producten!$B$4:$B$983,0),AD$1))</f>
         <v>Z49</v>
-      </c>
-      <c r="AD58" s="131">
-        <f>IF($F58 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F58,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>20</v>
       </c>
       <c r="AE58" s="6" t="str">
         <f>IF($E58 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E58,Webdiensten!$A$2:$A$991,0),AE$1))</f>
         <v>/toetsvragen-npr</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="126" t="s">
         <v>841</v>
       </c>
@@ -11015,31 +11042,31 @@
         <v>-</v>
       </c>
       <c r="X59" s="132" t="str">
-        <f>IF($F59 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F59,Producten!$B$4:$B$983,0),X$1))</f>
+        <f>IF($F59 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F59,Producten!$B$4:$B$983,0),X$1))</f>
         <v/>
       </c>
       <c r="Y59" s="133" t="str">
-        <f>IF($F59 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F59,Producten!$B$4:$B$983,0),Y$1))</f>
+        <f>IF($F59 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F59,Producten!$B$4:$B$983,0),Y$1))</f>
         <v/>
       </c>
       <c r="Z59" s="134" t="str">
-        <f>IF($F59 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F59,Producten!$B$4:$B$983,0),Z$1))</f>
+        <f>IF($F59 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F59,Producten!$B$4:$B$983,0),Z$1))</f>
         <v/>
       </c>
       <c r="AA59" s="135" t="str">
-        <f>IF($F59 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F59,Producten!$B$4:$B$983,0),AA$1))</f>
+        <f>IF($F59 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F59,Producten!$B$4:$B$983,0),AA$1))</f>
         <v/>
       </c>
       <c r="AB59" s="131" t="str">
-        <f>IF($F59 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F59,Producten!$B$4:$B$983,0),AB$1))</f>
+        <f>IF($F59 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F59,Producten!$B$4:$B$983,0),AB$1))</f>
         <v/>
       </c>
       <c r="AC59" s="131" t="str">
-        <f>IF($F59 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F59,Producten!$B$4:$B$983,0),AC$1))</f>
+        <f>IF($F59 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F59,Producten!$B$4:$B$983,0),AC$1))</f>
         <v/>
       </c>
       <c r="AD59" s="131" t="str">
-        <f>IF($F59 = "", "", INDEX(Producten!$B$4:$AD$983,MATCH($F59,Producten!$B$4:$B$983,0),AD$1))</f>
+        <f>IF($F59 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F59,Producten!$B$4:$B$983,0),AD$1))</f>
         <v/>
       </c>
     </row>
@@ -11136,13 +11163,13 @@
       <c r="B2" s="41">
         <v>1</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="159" t="s">
         <v>793</v>
       </c>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="152"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="161"/>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
@@ -11151,14 +11178,14 @@
       <c r="B3" s="41">
         <v>2</v>
       </c>
-      <c r="C3" s="153" t="str">
+      <c r="C3" s="162" t="str">
         <f>INDEX(Totaaloverzicht!$A$2:$AD$58,MATCH($C$2,Totaaloverzicht!$A$2:$A$58,0),B3)</f>
         <v>Ja</v>
       </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
     </row>
     <row r="4" spans="1:13" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
@@ -11167,33 +11194,33 @@
       <c r="B4" s="42">
         <v>3</v>
       </c>
-      <c r="C4" s="153" t="str">
+      <c r="C4" s="162" t="str">
         <f>INDEX(Totaaloverzicht!$A$2:$AD$58,MATCH($C$2,Totaaloverzicht!$A$2:$A$58,0),B4)</f>
         <v>zakelijke klanten</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-    </row>
-    <row r="5" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+    </row>
+    <row r="5" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>145</v>
       </c>
       <c r="B5" s="41">
         <v>6</v>
       </c>
-      <c r="C5" s="153" t="str">
+      <c r="C5" s="162" t="str">
         <f>INDEX(Totaaloverzicht!$A$2:$AD$58,MATCH($C$2,Totaaloverzicht!$A$2:$A$58,0),B5)</f>
         <v>Vervangende kentekencard en tenaamstellingscode zakelijk</v>
       </c>
-      <c r="D5" s="153"/>
-    </row>
-    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="D5" s="162"/>
+    </row>
+    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="38"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -11205,11 +11232,11 @@
         <v>Bij vermissing van kentekendelen de aanvraag van kentekencard en tenaamstellingscode of alleen een tenaamstellingscode</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="C8" s="45"/>
     </row>
-    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>148</v>
       </c>
@@ -11221,7 +11248,7 @@
         <v>Kentekencard en een tenaamstellingscode</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>99</v>
       </c>
@@ -11234,7 +11261,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>155</v>
       </c>
@@ -11249,7 +11276,7 @@
       <c r="E11" s="43"/>
       <c r="F11" s="37"/>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>103</v>
       </c>
@@ -11264,7 +11291,7 @@
       <c r="E12" s="43"/>
       <c r="F12" s="37"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="C13" s="37"/>
       <c r="D13" s="7"/>
@@ -11293,7 +11320,7 @@
       </c>
       <c r="L14" s="42"/>
     </row>
-    <row r="15" spans="1:13" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
         <v>152</v>
       </c>
@@ -11377,7 +11404,7 @@
         <v>backoffice</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="54" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
         <v>29</v>
       </c>
@@ -11400,7 +11427,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="C18" s="37"/>
       <c r="E18" s="1"/>
@@ -11415,26 +11442,26 @@
         <v>nee</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C19" s="37"/>
     </row>
-    <row r="20" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="41">
         <v>5</v>
       </c>
-      <c r="C20" s="154" t="str">
+      <c r="C20" s="163" t="str">
         <f>INDEX(Totaaloverzicht!$A$2:$AD$58,MATCH($C$2,Totaaloverzicht!$A$2:$A$58,0),B20)</f>
         <v>Vervangend kentekenbewijs aanvragen [zakelijk]</v>
       </c>
-      <c r="D20" s="154"/>
-    </row>
-    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="163"/>
+    </row>
+    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>3</v>
       </c>
@@ -11477,7 +11504,7 @@
       <c r="B24" s="41">
         <v>26</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="46" t="str">
         <f>INDEX(Totaaloverzicht!$A$2:$AD$58,MATCH($C$2,Totaaloverzicht!$A$2:$A$58,0),B24)</f>
         <v>30221201</v>
       </c>
@@ -11489,9 +11516,9 @@
       <c r="B25" s="41">
         <v>27</v>
       </c>
-      <c r="C25" s="46" t="str">
+      <c r="C25" s="46">
         <f>INDEX(Totaaloverzicht!$A$2:$AD$58,MATCH($C$2,Totaaloverzicht!$A$2:$A$58,0),B25)</f>
-        <v/>
+        <v>30221201</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -11503,7 +11530,7 @@
       </c>
       <c r="C26" s="46" t="str">
         <f>INDEX(Totaaloverzicht!$A$2:$AD$58,MATCH($C$2,Totaaloverzicht!$A$2:$A$58,0),B26)</f>
-        <v>-</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -11740,7 +11767,7 @@
         <v>FO EKI IC-310 Verwerken bericht raadplegen melding</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="62" t="s">
         <v>157</v>
       </c>
@@ -11760,7 +11787,7 @@
         <v>geen/onbekend</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="62" t="s">
         <v>157</v>
       </c>
@@ -11780,7 +11807,7 @@
         <v>FO OVI  IC-02 Ophalen voertuiggegevens</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="62" t="s">
         <v>157</v>
       </c>
@@ -11800,7 +11827,7 @@
         <v>FO AMS FUP-54 Controleren voertuig voor ondersteunende processen tenaamstellen</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="62" t="s">
         <v>2</v>
       </c>
@@ -11820,7 +11847,7 @@
         <v>geen/onbekend</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="62" t="s">
         <v>2</v>
       </c>
@@ -11840,7 +11867,7 @@
         <v>FO TKB Fip-012 Verwerken bericht voor af te geven EKB</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="62" t="s">
         <v>52</v>
       </c>
@@ -11860,7 +11887,7 @@
         <v>geen/onbekend</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="62" t="s">
         <v>52</v>
       </c>
@@ -11880,7 +11907,7 @@
         <v>geen/onbekend</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="62" t="s">
         <v>52</v>
       </c>
@@ -11900,7 +11927,7 @@
         <v>FO AMS FUP-53 Controleren persoon voor tenaamstellen</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="62" t="s">
         <v>33</v>
       </c>
@@ -11920,7 +11947,7 @@
         <v>geen/onbekend</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
         <v>33</v>
       </c>
@@ -11940,7 +11967,7 @@
         <v>FO AMS FUP-54 Controleren voertuig voor ondersteunende processen tenaamstellen</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="62" t="s">
         <v>49</v>
       </c>
@@ -11960,7 +11987,7 @@
         <v>geen/onbekend</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="62" t="s">
         <v>49</v>
       </c>
@@ -11980,7 +12007,7 @@
         <v>FO AMS FUP-54 Controleren voertuig voor ondersteunende processen tenaamstellen</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="62" t="s">
         <v>49</v>
       </c>
@@ -12000,7 +12027,7 @@
         <v>geen/onbekend</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="62" t="s">
         <v>104</v>
       </c>
@@ -12020,7 +12047,7 @@
         <v>FO AMS FUP-54 Controleren voertuig voor ondersteunende processen tenaamstellen</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="62" t="s">
         <v>106</v>
       </c>
@@ -12040,7 +12067,7 @@
         <v>FO AMS FUP-54 Controleren voertuig voor ondersteunende processen tenaamstellen</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="62" t="s">
         <v>162</v>
       </c>
@@ -12060,7 +12087,7 @@
         <v>FO EDS Generiek (proc-ident) IC-10 Selecteren voertuigen via Burgerservicenummer (ongeacht status)</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="62" t="s">
         <v>162</v>
       </c>
@@ -12080,7 +12107,7 @@
         <v>FO AMS FUP-60 Bepalen productcode en tarief tenaamstellen en schorsen</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="62" t="s">
         <v>162</v>
       </c>
@@ -12100,7 +12127,7 @@
         <v>FO AMS FIP-24 Registreren werkorder n.a.v. digitale aanvraag</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="62" t="s">
         <v>162</v>
       </c>
@@ -12120,7 +12147,7 @@
         <v>FO EDS Generiek (proc-ident) FUP-03 Ophalen werkorders op basis van EDS klantordernummer</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="62" t="s">
         <v>163</v>
       </c>
@@ -12140,7 +12167,7 @@
         <v>FO EDS Generiek (proc-ident) IC-10 Selecteren voertuigen via Burgerservicenummer (ongeacht status)</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="62" t="s">
         <v>163</v>
       </c>
@@ -12160,7 +12187,7 @@
         <v>FO AMS FIP-24 Registreren werkorder n.a.v. digitale aanvraag</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="62" t="s">
         <v>163</v>
       </c>
@@ -12180,7 +12207,7 @@
         <v>FO EDS Generiek (proc-ident) FUP-03 Ophalen werkorders op basis van EDS klantordernummer</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
         <v>279</v>
       </c>
@@ -12200,7 +12227,7 @@
         <v>FO VMS FIP-22 Registreren werkorder n.a.v. digitale aanvraag</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="62" t="s">
         <v>279</v>
       </c>
@@ -27896,7 +27923,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="62" t="s">
         <v>2</v>
       </c>
@@ -27912,7 +27939,7 @@
         <v>FO Web front-end Eendagskentekenbewijs</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="62" t="s">
         <v>52</v>
       </c>
@@ -27928,7 +27955,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="62" t="s">
         <v>52</v>
       </c>
@@ -27944,7 +27971,7 @@
         <v>FO EDS Bestandsuitwisselaar</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="62" t="s">
         <v>52</v>
       </c>
@@ -27960,7 +27987,7 @@
         <v>FO EDS Ordersysteem</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="62" t="s">
         <v>52</v>
       </c>
@@ -27976,7 +28003,7 @@
         <v>FO EDS Productcatalogus</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="62" t="s">
         <v>52</v>
       </c>
@@ -28008,7 +28035,7 @@
         <v>FO Ordercoördinator TV</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="62" t="s">
         <v>52</v>
       </c>
@@ -28024,7 +28051,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="62" t="s">
         <v>52</v>
       </c>
@@ -28040,7 +28067,7 @@
         <v>FO Rapportgenerator</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
         <v>52</v>
       </c>
@@ -28056,7 +28083,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="62" t="s">
         <v>52</v>
       </c>
@@ -28072,7 +28099,7 @@
         <v>FO Web front-end Eenmalig machtigen</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="62" t="s">
         <v>156</v>
       </c>
@@ -28088,7 +28115,7 @@
         <v>FO EDS Ordersysteem</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="62" t="s">
         <v>156</v>
       </c>
@@ -28104,7 +28131,7 @@
         <v>FO EDS Productcatalogus</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="62" t="s">
         <v>156</v>
       </c>
@@ -28120,7 +28147,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="62" t="s">
         <v>156</v>
       </c>
@@ -28136,7 +28163,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="62" t="s">
         <v>156</v>
       </c>
@@ -28152,7 +28179,7 @@
         <v>FO Web front-end Vermissing</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="62" t="s">
         <v>157</v>
       </c>
@@ -28168,7 +28195,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="62" t="s">
         <v>157</v>
       </c>
@@ -28184,7 +28211,7 @@
         <v>FO EDS Ordersysteem</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="62" t="s">
         <v>157</v>
       </c>
@@ -28200,7 +28227,7 @@
         <v>FO EDS Productcatalogus</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="62" t="s">
         <v>157</v>
       </c>
@@ -28216,7 +28243,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="62" t="s">
         <v>157</v>
       </c>
@@ -28232,7 +28259,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="62" t="s">
         <v>157</v>
       </c>
@@ -28248,7 +28275,7 @@
         <v>FO Web front-end Vermissing</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
         <v>33</v>
       </c>
@@ -28264,7 +28291,7 @@
         <v>FO EDS Ordersysteem</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="62" t="s">
         <v>33</v>
       </c>
@@ -43909,10 +43936,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43920,20 +43947,20 @@
     <col min="2" max="2" width="59.109375" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="25.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="88" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" style="164" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="88" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="88" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="73.6640625" style="108" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" style="88" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="158" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="88" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="88" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="73.6640625" style="108" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
-        <f>F1</f>
-        <v>RDW Productcode</v>
+        <f>C1</f>
+        <v>EDS Productcode</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>5</v>
@@ -43947,80 +43974,97 @@
       <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="162"/>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>852</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>854</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>855</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="F2" s="27" t="s">
+        <v>867</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27" t="s">
         <v>856</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>859</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>860</v>
+      </c>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>866</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>861</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27" t="s">
         <v>857</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="162" t="s">
-        <v>858</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27" t="s">
-        <v>860</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>861</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>862</v>
-      </c>
-      <c r="L2" s="25"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>854</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="162" t="s">
-        <v>859</v>
-      </c>
-      <c r="H3" s="27"/>
       <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="J3" s="27" t="s">
+        <v>868</v>
+      </c>
       <c r="K3" s="27"/>
-      <c r="L3" s="25"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L3" s="27"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f t="shared" ref="A4:A59" si="0">TEXT(,F4)</f>
-        <v>30440106</v>
+        <f>C4</f>
+        <v>BGRRegisterCoach</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>169</v>
@@ -44034,15 +44078,16 @@
       <c r="E4" s="66">
         <v>0</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="157" t="str">
+        <f>IF(G4="-","",TEXT(,G4))</f>
         <v>30440106</v>
       </c>
-      <c r="G4" s="163" t="str">
-        <f>IF(H4="-","",TEXT(,H4))</f>
-        <v/>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>7</v>
+      <c r="G4" s="48">
+        <v>30440106</v>
+      </c>
+      <c r="H4" s="157" t="str">
+        <f>IF(I4="-","",TEXT(,I4))</f>
+        <v/>
       </c>
       <c r="I4" s="48" t="s">
         <v>7</v>
@@ -44053,14 +44098,17 @@
       <c r="K4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>30440107</v>
+        <f t="shared" ref="A5:A59" si="0">C5</f>
+        <v>BGRRequestCoachingPass</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>132</v>
@@ -44074,33 +44122,37 @@
       <c r="E5" s="66">
         <v>35</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="157" t="str">
+        <f t="shared" ref="F5:H59" si="1">IF(G5="-","",TEXT(,G5))</f>
         <v>30440107</v>
       </c>
-      <c r="G5" s="163" t="str">
-        <f t="shared" ref="G5:G59" si="1">IF(H5="-","",TEXT(,H5))</f>
+      <c r="G5" s="48">
+        <v>30440107</v>
+      </c>
+      <c r="H5" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>3813</v>
       </c>
-      <c r="H5" s="48">
+      <c r="I5" s="48">
         <v>3813</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="J5" s="48" t="s">
         <v>448</v>
       </c>
-      <c r="J5" s="48">
+      <c r="K5" s="48">
         <v>20</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="L5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>30221204</v>
+        <v>DEM-BED</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>419</v>
@@ -44114,15 +44166,16 @@
       <c r="E6" s="75">
         <v>0</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221204</v>
       </c>
-      <c r="G6" s="163" t="str">
+      <c r="G6" s="48">
+        <v>30221204</v>
+      </c>
+      <c r="H6" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I6" s="48" t="s">
         <v>7</v>
@@ -44133,14 +44186,17 @@
       <c r="K6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>30221204</v>
+        <v>DEM-BUR</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>215</v>
@@ -44154,15 +44210,16 @@
       <c r="E7" s="66">
         <v>0</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221204</v>
       </c>
-      <c r="G7" s="163" t="str">
+      <c r="G7" s="48">
+        <v>30221204</v>
+      </c>
+      <c r="H7" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I7" s="48" t="s">
         <v>7</v>
@@ -44173,14 +44230,17 @@
       <c r="K7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>30221204</v>
+        <v>DEM-OVE</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>420</v>
@@ -44194,15 +44254,16 @@
       <c r="E8" s="75">
         <v>0</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221204</v>
       </c>
-      <c r="G8" s="163" t="str">
+      <c r="G8" s="48">
+        <v>30221204</v>
+      </c>
+      <c r="H8" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I8" s="48" t="s">
         <v>7</v>
@@ -44213,11 +44274,14 @@
       <c r="K8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>405</v>
       </c>
@@ -44230,15 +44294,16 @@
       <c r="E9" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="157" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="163" t="str">
+      <c r="H9" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>7</v>
@@ -44249,14 +44314,17 @@
       <c r="K9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="137" t="s">
+      <c r="L9" s="48" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>30220302</v>
+        <v>DTS</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>444</v>
@@ -44270,33 +44338,37 @@
       <c r="E10" s="75">
         <v>9.83</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30220302</v>
       </c>
-      <c r="G10" s="163" t="str">
+      <c r="G10" s="76">
+        <v>30220302</v>
+      </c>
+      <c r="H10" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3927</v>
       </c>
-      <c r="H10" s="76">
+      <c r="I10" s="76">
         <v>3927</v>
       </c>
-      <c r="I10" s="76" t="s">
+      <c r="J10" s="76" t="s">
         <v>450</v>
       </c>
-      <c r="J10" s="76">
+      <c r="K10" s="76">
         <v>20</v>
       </c>
-      <c r="K10" s="76" t="s">
+      <c r="L10" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="M10" s="26" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>30211213</v>
+        <v>EKB2</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>1</v>
@@ -44310,33 +44382,37 @@
       <c r="E11" s="28">
         <v>0</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30211213</v>
       </c>
-      <c r="G11" s="163" t="str">
+      <c r="G11" s="48">
+        <v>30211213</v>
+      </c>
+      <c r="H11" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3174</v>
       </c>
-      <c r="H11" s="48">
+      <c r="I11" s="48">
         <v>3174</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="J11" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="48">
+      <c r="K11" s="48">
         <v>20</v>
       </c>
-      <c r="K11" s="48" t="s">
+      <c r="L11" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>30221203</v>
+        <v>EMC</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>461</v>
@@ -44350,15 +44426,16 @@
       <c r="E12" s="75">
         <v>0</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221203</v>
       </c>
-      <c r="G12" s="163" t="str">
+      <c r="G12" s="48">
+        <v>30221203</v>
+      </c>
+      <c r="H12" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I12" s="48" t="s">
         <v>7</v>
@@ -44369,14 +44446,17 @@
       <c r="K12" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>30221216</v>
+        <v>EMM</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>54</v>
@@ -44390,15 +44470,16 @@
       <c r="E13" s="28">
         <v>0</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221216</v>
       </c>
-      <c r="G13" s="163" t="str">
+      <c r="G13" s="48">
+        <v>30221216</v>
+      </c>
+      <c r="H13" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>7</v>
@@ -44409,14 +44490,17 @@
       <c r="K13" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>30221204</v>
+        <v>GUR</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>289</v>
@@ -44430,33 +44514,37 @@
       <c r="E14" s="75">
         <v>4.5</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221204</v>
       </c>
-      <c r="G14" s="163" t="str">
+      <c r="G14" s="76">
+        <v>30221204</v>
+      </c>
+      <c r="H14" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3958</v>
       </c>
-      <c r="H14" s="48">
+      <c r="I14" s="48">
         <v>3958</v>
       </c>
-      <c r="I14" s="76" t="s">
+      <c r="J14" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="J14" s="48">
+      <c r="K14" s="48">
         <v>20</v>
       </c>
-      <c r="K14" s="76" t="s">
+      <c r="L14" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="M14" s="26" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>30110501</v>
+        <v>IVS-INZ</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>210</v>
@@ -44470,33 +44558,37 @@
       <c r="E15" s="66">
         <v>4.5</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30110501</v>
       </c>
-      <c r="G15" s="163" t="str">
+      <c r="G15" s="48">
+        <v>30110501</v>
+      </c>
+      <c r="H15" s="157" t="str">
         <f t="shared" si="1"/>
         <v>2396</v>
       </c>
-      <c r="H15" s="48">
+      <c r="I15" s="48">
         <v>2396</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="J15" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="J15" s="48">
+      <c r="K15" s="48">
         <v>20</v>
       </c>
-      <c r="K15" s="48" t="s">
+      <c r="L15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>30111504</v>
+        <v>IVS-REC-STAT</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>438</v>
@@ -44510,33 +44602,37 @@
       <c r="E16" s="75">
         <v>1.95</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30111504</v>
       </c>
-      <c r="G16" s="163" t="str">
+      <c r="G16" s="48">
+        <v>30111504</v>
+      </c>
+      <c r="H16" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3934</v>
       </c>
-      <c r="H16" s="48">
+      <c r="I16" s="48">
         <v>3934</v>
       </c>
-      <c r="I16" s="48" t="s">
+      <c r="J16" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="J16" s="48">
+      <c r="K16" s="48">
         <v>20</v>
       </c>
-      <c r="K16" s="48" t="s">
+      <c r="L16" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>30500101</v>
+        <v>IVS-SHP-0001</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>410</v>
@@ -44550,33 +44646,37 @@
       <c r="E17" s="75">
         <v>0</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30500101</v>
       </c>
-      <c r="G17" s="163" t="str">
+      <c r="G17" s="48">
+        <v>30500101</v>
+      </c>
+      <c r="H17" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3853</v>
       </c>
-      <c r="H17" s="48">
+      <c r="I17" s="48">
         <v>3853</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="J17" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="J17" s="48">
+      <c r="K17" s="48">
         <v>20</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="L17" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="M17" s="8" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>30500102</v>
+        <v>IVS-SHP-0002</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>411</v>
@@ -44590,33 +44690,37 @@
       <c r="E18" s="75">
         <v>0</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30500102</v>
       </c>
-      <c r="G18" s="163" t="str">
+      <c r="G18" s="48">
+        <v>30500102</v>
+      </c>
+      <c r="H18" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3854</v>
       </c>
-      <c r="H18" s="48">
+      <c r="I18" s="48">
         <v>3854</v>
       </c>
-      <c r="I18" s="48" t="s">
+      <c r="J18" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="J18" s="48">
+      <c r="K18" s="48">
         <v>20</v>
       </c>
-      <c r="K18" s="48" t="s">
+      <c r="L18" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>30500103</v>
+        <v>IVS-SHP-0003</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>412</v>
@@ -44630,33 +44734,37 @@
       <c r="E19" s="75">
         <v>0</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30500103</v>
       </c>
-      <c r="G19" s="163" t="str">
+      <c r="G19" s="48">
+        <v>30500103</v>
+      </c>
+      <c r="H19" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3855</v>
       </c>
-      <c r="H19" s="48">
+      <c r="I19" s="48">
         <v>3855</v>
       </c>
-      <c r="I19" s="48" t="s">
+      <c r="J19" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="J19" s="48">
+      <c r="K19" s="48">
         <v>20</v>
       </c>
-      <c r="K19" s="48" t="s">
+      <c r="L19" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>30500104</v>
+        <v>IVS-SHP-0004</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>459</v>
@@ -44670,33 +44778,37 @@
       <c r="E20" s="75">
         <v>0</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30500104</v>
       </c>
-      <c r="G20" s="163" t="str">
+      <c r="G20" s="48">
+        <v>30500104</v>
+      </c>
+      <c r="H20" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3856</v>
       </c>
-      <c r="H20" s="48">
+      <c r="I20" s="48">
         <v>3856</v>
       </c>
-      <c r="I20" s="48" t="s">
+      <c r="J20" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="J20" s="48">
+      <c r="K20" s="48">
         <v>20</v>
       </c>
-      <c r="K20" s="48" t="s">
+      <c r="L20" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="M20" s="8" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>30110503</v>
+        <v>IVS-VL-BVO</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>384</v>
@@ -44710,33 +44822,37 @@
       <c r="E21" s="75">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30110503</v>
       </c>
-      <c r="G21" s="163" t="str">
+      <c r="G21" s="48">
+        <v>30110503</v>
+      </c>
+      <c r="H21" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3470</v>
       </c>
-      <c r="H21" s="76">
+      <c r="I21" s="76">
         <v>3470</v>
       </c>
-      <c r="I21" s="76" t="s">
+      <c r="J21" s="76" t="s">
         <v>386</v>
       </c>
-      <c r="J21" s="76">
+      <c r="K21" s="76">
         <v>20</v>
       </c>
-      <c r="K21" s="76" t="s">
+      <c r="L21" s="76" t="s">
         <v>387</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="M21" s="26" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>30110509</v>
+        <v>IVS-VL-DTL</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>397</v>
@@ -44750,33 +44866,37 @@
       <c r="E22" s="75">
         <v>90</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30110509</v>
       </c>
-      <c r="G22" s="163" t="str">
+      <c r="G22" s="48">
+        <v>30110509</v>
+      </c>
+      <c r="H22" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3832</v>
       </c>
-      <c r="H22" s="48">
+      <c r="I22" s="48">
         <v>3832</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="J22" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="J22" s="48">
+      <c r="K22" s="48">
         <v>20</v>
       </c>
-      <c r="K22" s="48" t="s">
+      <c r="L22" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="L22" s="115" t="s">
+      <c r="M22" s="115" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>30112201</v>
+        <v>IVS-VL-DTL-RTL</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>402</v>
@@ -44790,33 +44910,37 @@
       <c r="E23" s="75">
         <v>90</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30112201</v>
       </c>
-      <c r="G23" s="163" t="str">
+      <c r="G23" s="48">
+        <v>30112201</v>
+      </c>
+      <c r="H23" s="157" t="str">
         <f t="shared" si="1"/>
         <v>2417</v>
       </c>
-      <c r="H23" s="48">
+      <c r="I23" s="48">
         <v>2417</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="J23" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="J23" s="48">
+      <c r="K23" s="48">
         <v>20</v>
       </c>
-      <c r="K23" s="48" t="s">
+      <c r="L23" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="L23" s="115" t="s">
+      <c r="M23" s="115" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>30110604</v>
+        <v>IVS-VL-FGV</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>399</v>
@@ -44830,33 +44954,37 @@
       <c r="E24" s="75">
         <v>0</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30110604</v>
       </c>
-      <c r="G24" s="163" t="str">
+      <c r="G24" s="48">
+        <v>30110604</v>
+      </c>
+      <c r="H24" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3844</v>
       </c>
-      <c r="H24" s="48">
+      <c r="I24" s="48">
         <v>3844</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="J24" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="J24" s="48">
+      <c r="K24" s="48">
         <v>20</v>
       </c>
-      <c r="K24" s="48" t="s">
+      <c r="L24" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="M24" s="8" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>30110508</v>
+        <v>IVS-VL-LTD</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>447</v>
@@ -44870,33 +44998,37 @@
       <c r="E25" s="75">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30110508</v>
       </c>
-      <c r="G25" s="163" t="str">
+      <c r="G25" s="48">
+        <v>30110508</v>
+      </c>
+      <c r="H25" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3843</v>
       </c>
-      <c r="H25" s="48">
+      <c r="I25" s="48">
         <v>3843</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="J25" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="J25" s="48">
+      <c r="K25" s="48">
         <v>20</v>
       </c>
-      <c r="K25" s="48" t="s">
+      <c r="L25" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="L25" s="126" t="s">
+      <c r="M25" s="126" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>30110506</v>
+        <v>IVS-VR</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>211</v>
@@ -44910,33 +45042,37 @@
       <c r="E26" s="66">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30110506</v>
       </c>
-      <c r="G26" s="163" t="str">
+      <c r="G26" s="48">
+        <v>30110506</v>
+      </c>
+      <c r="H26" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3917</v>
       </c>
-      <c r="H26" s="48">
+      <c r="I26" s="48">
         <v>3917</v>
       </c>
-      <c r="I26" s="48" t="s">
+      <c r="J26" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="J26" s="48">
+      <c r="K26" s="48">
         <v>20</v>
       </c>
-      <c r="K26" s="48" t="s">
+      <c r="L26" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="M26" s="8" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="145" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>30111506</v>
+        <v>IVS-VR-REC</v>
       </c>
       <c r="B27" s="141" t="s">
         <v>212</v>
@@ -44950,33 +45086,37 @@
       <c r="E27" s="142">
         <v>1.95</v>
       </c>
-      <c r="F27" s="143">
+      <c r="F27" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30111506</v>
       </c>
-      <c r="G27" s="163" t="str">
+      <c r="G27" s="143">
+        <v>30111506</v>
+      </c>
+      <c r="H27" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3936</v>
       </c>
-      <c r="H27" s="143">
+      <c r="I27" s="143">
         <v>3936</v>
       </c>
-      <c r="I27" s="143" t="s">
+      <c r="J27" s="143" t="s">
         <v>209</v>
       </c>
-      <c r="J27" s="143">
+      <c r="K27" s="143">
         <v>20</v>
       </c>
-      <c r="K27" s="143" t="s">
+      <c r="L27" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="144" t="s">
+      <c r="M27" s="144" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>30110506</v>
+        <v>IVS-VRZ</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>382</v>
@@ -44990,33 +45130,37 @@
       <c r="E28" s="75">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30110506</v>
       </c>
-      <c r="G28" s="163" t="str">
+      <c r="G28" s="48">
+        <v>30110506</v>
+      </c>
+      <c r="H28" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3917</v>
       </c>
-      <c r="H28" s="76">
+      <c r="I28" s="76">
         <v>3917</v>
       </c>
-      <c r="I28" s="76" t="s">
+      <c r="J28" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="J28" s="76">
+      <c r="K28" s="76">
         <v>20</v>
       </c>
-      <c r="K28" s="76" t="s">
+      <c r="L28" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="M28" s="26" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="145" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>30111506</v>
+        <v>IVS-VRZ-REC</v>
       </c>
       <c r="B29" s="100" t="s">
         <v>462</v>
@@ -45030,33 +45174,37 @@
       <c r="E29" s="146">
         <v>0</v>
       </c>
-      <c r="F29" s="143">
+      <c r="F29" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30111506</v>
       </c>
-      <c r="G29" s="163" t="str">
+      <c r="G29" s="143">
+        <v>30111506</v>
+      </c>
+      <c r="H29" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3936</v>
       </c>
-      <c r="H29" s="143">
+      <c r="I29" s="143">
         <v>3936</v>
       </c>
-      <c r="I29" s="143" t="s">
+      <c r="J29" s="143" t="s">
         <v>209</v>
       </c>
-      <c r="J29" s="143">
+      <c r="K29" s="143">
         <v>20</v>
       </c>
-      <c r="K29" s="143" t="s">
+      <c r="L29" s="143" t="s">
         <v>379</v>
       </c>
-      <c r="L29" s="144" t="s">
+      <c r="M29" s="144" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>30221209</v>
+        <v>KCB</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>409</v>
@@ -45070,15 +45218,16 @@
       <c r="E30" s="75">
         <v>2.9</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221209</v>
       </c>
-      <c r="G30" s="163" t="str">
+      <c r="G30" s="48">
+        <v>30221209</v>
+      </c>
+      <c r="H30" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H30" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I30" s="48" t="s">
         <v>7</v>
@@ -45089,14 +45238,17 @@
       <c r="K30" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="8" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>30221502</v>
+        <v>MIL-CTS</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>355</v>
@@ -45110,15 +45262,16 @@
       <c r="E31" s="75">
         <v>0</v>
       </c>
-      <c r="F31" s="48">
+      <c r="F31" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221502</v>
       </c>
-      <c r="G31" s="163" t="str">
+      <c r="G31" s="48">
+        <v>30221502</v>
+      </c>
+      <c r="H31" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H31" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I31" s="48" t="s">
         <v>7</v>
@@ -45129,14 +45282,17 @@
       <c r="K31" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="8" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>30221501</v>
+        <v>MIL-OTS</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>354</v>
@@ -45150,15 +45306,16 @@
       <c r="E32" s="75">
         <v>0</v>
       </c>
-      <c r="F32" s="48">
+      <c r="F32" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221501</v>
       </c>
-      <c r="G32" s="163" t="str">
+      <c r="G32" s="48">
+        <v>30221501</v>
+      </c>
+      <c r="H32" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I32" s="48" t="s">
         <v>7</v>
@@ -45169,14 +45326,17 @@
       <c r="K32" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="8" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>30221504</v>
+        <v>NAP</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>295</v>
@@ -45190,33 +45350,37 @@
       <c r="E33" s="75">
         <v>0</v>
       </c>
-      <c r="F33" s="48">
+      <c r="F33" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221504</v>
       </c>
-      <c r="G33" s="163" t="str">
+      <c r="G33" s="48">
+        <v>30221504</v>
+      </c>
+      <c r="H33" s="157" t="str">
         <f t="shared" si="1"/>
         <v>4216</v>
       </c>
-      <c r="H33" s="48">
+      <c r="I33" s="48">
         <v>4216</v>
       </c>
-      <c r="I33" s="48" t="s">
+      <c r="J33" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="J33" s="48">
+      <c r="K33" s="48">
         <v>21</v>
       </c>
-      <c r="K33" s="48" t="s">
+      <c r="L33" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="M33" s="8" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>30221210</v>
+        <v>OTT-OPV</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>430</v>
@@ -45230,15 +45394,16 @@
       <c r="E34" s="75">
         <v>5</v>
       </c>
-      <c r="F34" s="48">
+      <c r="F34" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221210</v>
       </c>
-      <c r="G34" s="163" t="str">
+      <c r="G34" s="48">
+        <v>30221210</v>
+      </c>
+      <c r="H34" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H34" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I34" s="48" t="s">
         <v>7</v>
@@ -45249,14 +45414,17 @@
       <c r="K34" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="8" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>30221211</v>
+        <v>OTT-WIJZ</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>431</v>
@@ -45270,15 +45438,16 @@
       <c r="E35" s="75">
         <v>0</v>
       </c>
-      <c r="F35" s="48">
+      <c r="F35" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221211</v>
       </c>
-      <c r="G35" s="163" t="str">
+      <c r="G35" s="48">
+        <v>30221211</v>
+      </c>
+      <c r="H35" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H35" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I35" s="48" t="s">
         <v>7</v>
@@ -45289,14 +45458,17 @@
       <c r="K35" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" s="8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>30110723</v>
+        <v>OVIZ</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>376</v>
@@ -45310,33 +45482,37 @@
       <c r="E36" s="75">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F36" s="48">
+      <c r="F36" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30110723</v>
       </c>
-      <c r="G36" s="163" t="str">
+      <c r="G36" s="48">
+        <v>30110723</v>
+      </c>
+      <c r="H36" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3783</v>
       </c>
-      <c r="H36" s="76">
+      <c r="I36" s="76">
         <v>3783</v>
       </c>
-      <c r="I36" s="76" t="s">
+      <c r="J36" s="76" t="s">
         <v>378</v>
       </c>
-      <c r="J36" s="76">
+      <c r="K36" s="76">
         <v>20</v>
       </c>
-      <c r="K36" s="76" t="s">
+      <c r="L36" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="L36" s="26" t="s">
+      <c r="M36" s="26" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>30130801</v>
+        <v>RBCZ</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>460</v>
@@ -45350,33 +45526,37 @@
       <c r="E37" s="75">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F37" s="48">
+      <c r="F37" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30130801</v>
       </c>
-      <c r="G37" s="163" t="str">
+      <c r="G37" s="48">
+        <v>30130801</v>
+      </c>
+      <c r="H37" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3784</v>
       </c>
-      <c r="H37" s="76">
+      <c r="I37" s="76">
         <v>3784</v>
       </c>
-      <c r="I37" s="76" t="s">
+      <c r="J37" s="76" t="s">
         <v>381</v>
       </c>
-      <c r="J37" s="76">
+      <c r="K37" s="76">
         <v>20</v>
       </c>
-      <c r="K37" s="76" t="s">
+      <c r="L37" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="L37" s="26" t="s">
+      <c r="M37" s="26" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>30111505</v>
+        <v>REC-VIN</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>297</v>
@@ -45390,27 +45570,31 @@
       <c r="E38" s="75">
         <v>0</v>
       </c>
-      <c r="F38" s="48">
+      <c r="F38" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30111505</v>
       </c>
-      <c r="G38" s="163" t="str">
+      <c r="G38" s="48">
+        <v>30111505</v>
+      </c>
+      <c r="H38" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3935</v>
       </c>
-      <c r="H38" s="48">
+      <c r="I38" s="48">
         <v>3935</v>
       </c>
-      <c r="I38" s="48"/>
       <c r="J38" s="48"/>
       <c r="K38" s="48"/>
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="48"/>
+      <c r="M38" s="8" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>30223110</v>
+        <v>SCH5</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>159</v>
@@ -45424,15 +45608,16 @@
       <c r="E39" s="28">
         <v>0</v>
       </c>
-      <c r="F39" s="48">
+      <c r="F39" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30223110</v>
       </c>
-      <c r="G39" s="163" t="str">
+      <c r="G39" s="48">
+        <v>30223110</v>
+      </c>
+      <c r="H39" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H39" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I39" s="48" t="s">
         <v>7</v>
@@ -45443,11 +45628,14 @@
       <c r="K39" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L39" s="137" t="s">
+      <c r="L39" s="48" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="M39" s="137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>167</v>
       </c>
@@ -45460,10 +45648,18 @@
       <c r="E40" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="F40" s="157" t="str">
+        <f t="shared" si="1"/>
+        <v>30223111, 
+30223117, 
+30223116, 
+30223118,  
+30223108</v>
+      </c>
+      <c r="G40" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="G40" s="163" t="str">
+      <c r="H40" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3925,
 3923,
@@ -45471,216 +45667,236 @@
 3924,
 -</v>
       </c>
-      <c r="H40" s="50" t="s">
+      <c r="I40" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="I40" s="48" t="s">
+      <c r="J40" s="48" t="s">
         <v>450</v>
       </c>
-      <c r="J40" s="48">
+      <c r="K40" s="48">
         <v>20</v>
       </c>
-      <c r="K40" s="48" t="s">
+      <c r="L40" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="137" t="s">
+      <c r="M40" s="137" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="155" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="155" t="str">
+    <row r="41" spans="1:13" s="150" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
         <f t="shared" si="0"/>
+        <v>SCH6</v>
+      </c>
+      <c r="B41" s="151" t="s">
+        <v>847</v>
+      </c>
+      <c r="C41" s="152" t="s">
+        <v>842</v>
+      </c>
+      <c r="D41" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="153">
+        <v>11</v>
+      </c>
+      <c r="F41" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30223111</v>
       </c>
-      <c r="B41" s="156" t="s">
-        <v>847</v>
-      </c>
-      <c r="C41" s="157" t="s">
-        <v>842</v>
-      </c>
-      <c r="D41" s="156" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" s="158">
-        <v>11</v>
-      </c>
-      <c r="F41" s="159">
+      <c r="G41" s="154">
         <v>30223111</v>
       </c>
-      <c r="G41" s="163" t="str">
+      <c r="H41" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3925</v>
       </c>
-      <c r="H41" s="159">
+      <c r="I41" s="154">
         <v>3925</v>
       </c>
-      <c r="I41" s="160" t="s">
+      <c r="J41" s="155" t="s">
         <v>450</v>
       </c>
-      <c r="J41" s="160">
+      <c r="K41" s="155">
         <v>20</v>
       </c>
-      <c r="K41" s="160" t="s">
+      <c r="L41" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="161"/>
-    </row>
-    <row r="42" spans="1:12" s="155" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="155" t="str">
+      <c r="M41" s="156"/>
+    </row>
+    <row r="42" spans="1:13" s="150" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
         <f t="shared" si="0"/>
+        <v>SCH2</v>
+      </c>
+      <c r="B42" s="151" t="s">
+        <v>848</v>
+      </c>
+      <c r="C42" s="152" t="s">
+        <v>846</v>
+      </c>
+      <c r="D42" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="153">
+        <v>24</v>
+      </c>
+      <c r="F42" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30223117</v>
       </c>
-      <c r="B42" s="156" t="s">
-        <v>848</v>
-      </c>
-      <c r="C42" s="157" t="s">
-        <v>846</v>
-      </c>
-      <c r="D42" s="156" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" s="158">
-        <v>24</v>
-      </c>
-      <c r="F42" s="159">
+      <c r="G42" s="154">
         <v>30223117</v>
       </c>
-      <c r="G42" s="163" t="str">
+      <c r="H42" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3923</v>
       </c>
-      <c r="H42" s="159">
+      <c r="I42" s="154">
         <v>3923</v>
       </c>
-      <c r="I42" s="160" t="s">
+      <c r="J42" s="155" t="s">
         <v>450</v>
       </c>
-      <c r="J42" s="160">
+      <c r="K42" s="155">
         <v>20</v>
       </c>
-      <c r="K42" s="160" t="s">
+      <c r="L42" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="161"/>
-    </row>
-    <row r="43" spans="1:12" s="155" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="155" t="str">
+      <c r="M42" s="156"/>
+    </row>
+    <row r="43" spans="1:13" s="150" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
         <f t="shared" si="0"/>
+        <v>SCH1</v>
+      </c>
+      <c r="B43" s="151" t="s">
+        <v>849</v>
+      </c>
+      <c r="C43" s="152" t="s">
+        <v>845</v>
+      </c>
+      <c r="D43" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="153">
+        <v>73</v>
+      </c>
+      <c r="F43" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30223116</v>
       </c>
-      <c r="B43" s="156" t="s">
-        <v>849</v>
-      </c>
-      <c r="C43" s="157" t="s">
-        <v>845</v>
-      </c>
-      <c r="D43" s="156" t="s">
-        <v>164</v>
-      </c>
-      <c r="E43" s="158">
-        <v>73</v>
-      </c>
-      <c r="F43" s="159">
+      <c r="G43" s="154">
         <v>30223116</v>
       </c>
-      <c r="G43" s="163" t="str">
+      <c r="H43" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3922</v>
       </c>
-      <c r="H43" s="159">
+      <c r="I43" s="154">
         <v>3922</v>
       </c>
-      <c r="I43" s="160" t="s">
+      <c r="J43" s="155" t="s">
         <v>450</v>
       </c>
-      <c r="J43" s="160">
+      <c r="K43" s="155">
         <v>20</v>
       </c>
-      <c r="K43" s="160" t="s">
+      <c r="L43" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="161"/>
-    </row>
-    <row r="44" spans="1:12" s="155" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="155" t="str">
+      <c r="M43" s="156"/>
+    </row>
+    <row r="44" spans="1:13" s="150" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
         <f t="shared" si="0"/>
+        <v>SCH4</v>
+      </c>
+      <c r="B44" s="151" t="s">
+        <v>850</v>
+      </c>
+      <c r="C44" s="152" t="s">
+        <v>844</v>
+      </c>
+      <c r="D44" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="153">
+        <v>120</v>
+      </c>
+      <c r="F44" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30223118</v>
       </c>
-      <c r="B44" s="156" t="s">
-        <v>850</v>
-      </c>
-      <c r="C44" s="157" t="s">
-        <v>844</v>
-      </c>
-      <c r="D44" s="156" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" s="158">
-        <v>120</v>
-      </c>
-      <c r="F44" s="159">
+      <c r="G44" s="154">
         <v>30223118</v>
       </c>
-      <c r="G44" s="163" t="str">
+      <c r="H44" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3924</v>
       </c>
-      <c r="H44" s="159">
+      <c r="I44" s="154">
         <v>3924</v>
       </c>
-      <c r="I44" s="160" t="s">
+      <c r="J44" s="155" t="s">
         <v>450</v>
       </c>
-      <c r="J44" s="160">
+      <c r="K44" s="155">
         <v>20</v>
       </c>
-      <c r="K44" s="160" t="s">
+      <c r="L44" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="161"/>
-    </row>
-    <row r="45" spans="1:12" s="155" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="155" t="str">
+      <c r="M44" s="156"/>
+    </row>
+    <row r="45" spans="1:13" s="150" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
         <f t="shared" si="0"/>
+        <v>SCH3</v>
+      </c>
+      <c r="B45" s="151" t="s">
+        <v>851</v>
+      </c>
+      <c r="C45" s="152" t="s">
+        <v>843</v>
+      </c>
+      <c r="D45" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="153">
+        <v>0</v>
+      </c>
+      <c r="F45" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30223108</v>
       </c>
-      <c r="B45" s="156" t="s">
-        <v>851</v>
-      </c>
-      <c r="C45" s="157" t="s">
-        <v>843</v>
-      </c>
-      <c r="D45" s="156" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" s="158">
-        <v>0</v>
-      </c>
-      <c r="F45" s="159">
+      <c r="G45" s="154">
         <v>30223108</v>
       </c>
-      <c r="G45" s="163" t="str">
+      <c r="H45" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H45" s="159" t="s">
+      <c r="I45" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="160" t="s">
+      <c r="J45" s="155" t="s">
         <v>450</v>
       </c>
-      <c r="J45" s="160">
+      <c r="K45" s="155">
         <v>20</v>
       </c>
-      <c r="K45" s="160" t="s">
+      <c r="L45" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="L45" s="161"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="156"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>30221208</v>
+        <v>TDT-TEN</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>51</v>
@@ -45694,15 +45910,16 @@
       <c r="E46" s="28">
         <v>0</v>
       </c>
-      <c r="F46" s="48">
+      <c r="F46" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221208</v>
       </c>
-      <c r="G46" s="163" t="str">
+      <c r="G46" s="48">
+        <v>30221208</v>
+      </c>
+      <c r="H46" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H46" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I46" s="48" t="s">
         <v>7</v>
@@ -45713,14 +45930,17 @@
       <c r="K46" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="L46" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="8" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>30221207</v>
+        <v>TDT-TIJD-DOC</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>37</v>
@@ -45734,15 +45954,16 @@
       <c r="E47" s="28">
         <v>0</v>
       </c>
-      <c r="F47" s="48">
+      <c r="F47" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221207</v>
       </c>
-      <c r="G47" s="163" t="str">
+      <c r="G47" s="48">
+        <v>30221207</v>
+      </c>
+      <c r="H47" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H47" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I47" s="48" t="s">
         <v>7</v>
@@ -45753,14 +45974,17 @@
       <c r="K47" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L47" s="8" t="s">
+      <c r="L47" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" s="8" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>30110507</v>
+        <v>TSC</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>139</v>
@@ -45774,33 +45998,37 @@
       <c r="E48" s="66">
         <v>2.99</v>
       </c>
-      <c r="F48" s="48">
+      <c r="F48" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30110507</v>
       </c>
-      <c r="G48" s="163" t="str">
+      <c r="G48" s="48">
+        <v>30110507</v>
+      </c>
+      <c r="H48" s="157" t="str">
         <f t="shared" si="1"/>
         <v>4218</v>
       </c>
-      <c r="H48" s="48">
+      <c r="I48" s="48">
         <v>4218</v>
       </c>
-      <c r="I48" s="48" t="s">
+      <c r="J48" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="J48" s="48">
+      <c r="K48" s="48">
         <v>20</v>
       </c>
-      <c r="K48" s="48" t="s">
+      <c r="L48" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="8" t="s">
+      <c r="M48" s="8" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>30221212</v>
+        <v>VVB-OPV</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>352</v>
@@ -45814,15 +46042,16 @@
       <c r="E49" s="75">
         <v>0</v>
       </c>
-      <c r="F49" s="48">
+      <c r="F49" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221212</v>
       </c>
-      <c r="G49" s="163" t="str">
+      <c r="G49" s="48">
+        <v>30221212</v>
+      </c>
+      <c r="H49" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H49" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I49" s="48" t="s">
         <v>7</v>
@@ -45833,14 +46062,17 @@
       <c r="K49" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L49" s="8" t="s">
+      <c r="L49" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49" s="8" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>30221313</v>
+        <v>VVB-VERW</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>353</v>
@@ -45854,15 +46086,16 @@
       <c r="E50" s="75">
         <v>0</v>
       </c>
-      <c r="F50" s="48">
+      <c r="F50" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221313</v>
       </c>
-      <c r="G50" s="163" t="str">
+      <c r="G50" s="48">
+        <v>30221313</v>
+      </c>
+      <c r="H50" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H50" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I50" s="48" t="s">
         <v>7</v>
@@ -45873,14 +46106,17 @@
       <c r="K50" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L50" s="8" t="s">
+      <c r="L50" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50" s="8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>30221201</v>
+        <v>VVK-KEN-TEN-BED</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>458</v>
@@ -45894,15 +46130,16 @@
       <c r="E51" s="75">
         <v>31.5</v>
       </c>
-      <c r="F51" s="48">
+      <c r="F51" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221201</v>
       </c>
-      <c r="G51" s="163" t="str">
+      <c r="G51" s="48">
+        <v>30221201</v>
+      </c>
+      <c r="H51" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H51" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I51" s="48" t="s">
         <v>7</v>
@@ -45913,14 +46150,17 @@
       <c r="K51" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L51" s="8" t="s">
+      <c r="L51" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51" s="8" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>30221201</v>
+        <v>VVK-KEN-TEN-BUR</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>446</v>
@@ -45934,33 +46174,37 @@
       <c r="E52" s="28">
         <v>31.5</v>
       </c>
-      <c r="F52" s="48">
+      <c r="F52" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221201</v>
       </c>
-      <c r="G52" s="163" t="str">
+      <c r="G52" s="48">
+        <v>30221201</v>
+      </c>
+      <c r="H52" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3902</v>
       </c>
-      <c r="H52" s="48">
+      <c r="I52" s="48">
         <v>3902</v>
       </c>
-      <c r="I52" s="48" t="s">
+      <c r="J52" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="J52" s="48">
+      <c r="K52" s="48">
         <v>20</v>
       </c>
-      <c r="K52" s="48" t="s">
+      <c r="L52" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="M52" s="8" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>30231105</v>
+        <v>VVK-OPP-BUR</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>279</v>
@@ -45974,33 +46218,37 @@
       <c r="E53" s="75">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F53" s="76">
+      <c r="F53" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30231105</v>
       </c>
-      <c r="G53" s="163" t="str">
+      <c r="G53" s="76">
+        <v>30231105</v>
+      </c>
+      <c r="H53" s="157" t="str">
         <f t="shared" si="1"/>
         <v>4227</v>
       </c>
-      <c r="H53" s="48">
+      <c r="I53" s="48">
         <v>4227</v>
       </c>
-      <c r="I53" s="76" t="s">
+      <c r="J53" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="J53" s="48">
+      <c r="K53" s="48">
         <v>20</v>
       </c>
-      <c r="K53" s="76" t="s">
+      <c r="L53" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="26" t="s">
+      <c r="M53" s="26" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>30221202</v>
+        <v>VVK-TEN-BED</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>457</v>
@@ -46014,15 +46262,16 @@
       <c r="E54" s="75">
         <v>1</v>
       </c>
-      <c r="F54" s="48">
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221202</v>
       </c>
-      <c r="G54" s="163" t="str">
+      <c r="G54" s="48">
+        <v>30221202</v>
+      </c>
+      <c r="H54" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="H54" s="48" t="s">
-        <v>7</v>
       </c>
       <c r="I54" s="48" t="s">
         <v>7</v>
@@ -46033,14 +46282,17 @@
       <c r="K54" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="L54" s="8" t="s">
+      <c r="L54" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M54" s="8" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>30221202</v>
+        <v>VVK-TEN-BUR</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>283</v>
@@ -46054,33 +46306,37 @@
       <c r="E55" s="28">
         <v>1</v>
       </c>
-      <c r="F55" s="48">
+      <c r="F55" s="157" t="str">
+        <f t="shared" si="1"/>
         <v>30221202</v>
       </c>
-      <c r="G55" s="163" t="str">
+      <c r="G55" s="48">
+        <v>30221202</v>
+      </c>
+      <c r="H55" s="157" t="str">
         <f t="shared" si="1"/>
         <v>3903</v>
       </c>
-      <c r="H55" s="48">
+      <c r="I55" s="48">
         <v>3903</v>
       </c>
-      <c r="I55" s="48" t="s">
+      <c r="J55" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="J55" s="48">
+      <c r="K55" s="48">
         <v>20</v>
       </c>
-      <c r="K55" s="48" t="s">
+      <c r="L55" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="8" t="s">
+      <c r="M55" s="8" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>VVKB</v>
       </c>
       <c r="B56" s="138" t="s">
         <v>833</v>
@@ -46090,23 +46346,24 @@
       </c>
       <c r="D56" s="138"/>
       <c r="E56" s="138"/>
-      <c r="F56" s="139"/>
-      <c r="G56" s="163" t="str">
+      <c r="F56" s="138"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H56" s="139"/>
       <c r="I56" s="139"/>
       <c r="J56" s="139"/>
       <c r="K56" s="139"/>
-      <c r="L56" s="140" t="s">
+      <c r="L56" s="139"/>
+      <c r="M56" s="140" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>VVK</v>
       </c>
       <c r="B57" s="138" t="s">
         <v>832</v>
@@ -46116,23 +46373,24 @@
       </c>
       <c r="D57" s="138"/>
       <c r="E57" s="138"/>
-      <c r="F57" s="139"/>
-      <c r="G57" s="163" t="str">
+      <c r="F57" s="138"/>
+      <c r="G57" s="139"/>
+      <c r="H57" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H57" s="139"/>
       <c r="I57" s="139"/>
       <c r="J57" s="139"/>
       <c r="K57" s="139"/>
-      <c r="L57" s="140" t="s">
+      <c r="L57" s="139"/>
+      <c r="M57" s="140" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>EKB</v>
       </c>
       <c r="B58" s="138" t="s">
         <v>830</v>
@@ -46142,23 +46400,24 @@
       </c>
       <c r="D58" s="138"/>
       <c r="E58" s="138"/>
-      <c r="F58" s="139"/>
-      <c r="G58" s="163" t="str">
+      <c r="F58" s="138"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H58" s="139"/>
       <c r="I58" s="139"/>
       <c r="J58" s="139"/>
       <c r="K58" s="139"/>
-      <c r="L58" s="140" t="s">
+      <c r="L58" s="139"/>
+      <c r="M58" s="140" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>BVO</v>
       </c>
       <c r="B59" s="138" t="s">
         <v>831</v>
@@ -46168,21 +46427,22 @@
       </c>
       <c r="D59" s="138"/>
       <c r="E59" s="138"/>
-      <c r="F59" s="139"/>
-      <c r="G59" s="163" t="str">
+      <c r="F59" s="138"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="157" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H59" s="139"/>
       <c r="I59" s="139"/>
       <c r="J59" s="139"/>
       <c r="K59" s="139"/>
-      <c r="L59" s="140" t="s">
+      <c r="L59" s="139"/>
+      <c r="M59" s="140" t="s">
         <v>839</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K55"/>
+  <autoFilter ref="B1:L55"/>
   <sortState ref="B2:J48">
     <sortCondition ref="C2:C48"/>
   </sortState>
@@ -46440,7 +46700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -46451,7 +46711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>248</v>
       </c>
@@ -46462,7 +46722,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>270</v>
       </c>
@@ -46473,7 +46733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -46484,7 +46744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>258</v>
       </c>
@@ -46495,7 +46755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>269</v>
       </c>
@@ -46506,7 +46766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>272</v>
       </c>
@@ -46517,7 +46777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>245</v>
       </c>
@@ -46528,7 +46788,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -46539,7 +46799,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -46550,7 +46810,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -46561,7 +46821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -46837,7 +47097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2845</v>
       </c>
@@ -46851,7 +47111,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2849</v>
       </c>
@@ -46865,7 +47125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2850</v>
       </c>
@@ -46879,7 +47139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2867</v>
       </c>
@@ -46893,7 +47153,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2882</v>
       </c>
@@ -46907,7 +47167,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2883</v>
       </c>
@@ -46921,7 +47181,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2923</v>
       </c>
@@ -46935,7 +47195,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2175</v>
       </c>
@@ -46949,7 +47209,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2971</v>
       </c>
@@ -46977,7 +47237,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>30</v>
       </c>
@@ -46994,7 +47254,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>125</v>
       </c>
@@ -47011,7 +47271,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>978</v>
       </c>
@@ -47028,7 +47288,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>997</v>
       </c>
@@ -47045,7 +47305,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>1214</v>
       </c>
@@ -47062,7 +47322,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>1303</v>
       </c>
@@ -47079,7 +47339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>1308</v>
       </c>
@@ -47096,7 +47356,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>1593</v>
       </c>
@@ -47113,7 +47373,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>1869</v>
       </c>
@@ -47130,7 +47390,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>2165</v>
       </c>
@@ -47147,7 +47407,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>2175</v>
       </c>
@@ -47164,7 +47424,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>2176</v>
       </c>
@@ -47181,7 +47441,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>2284</v>
       </c>
@@ -47198,7 +47458,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>2284</v>
       </c>
@@ -47215,7 +47475,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>2304</v>
       </c>
@@ -47232,7 +47492,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>2357</v>
       </c>
@@ -47249,7 +47509,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>2384</v>
       </c>
@@ -47266,7 +47526,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>2397</v>
       </c>
@@ -47283,7 +47543,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>2398</v>
       </c>
@@ -47300,7 +47560,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>2398</v>
       </c>
@@ -47317,7 +47577,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>2402</v>
       </c>
@@ -47334,7 +47594,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>2610</v>
       </c>
@@ -47351,7 +47611,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>2683</v>
       </c>
@@ -47368,7 +47628,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>2702</v>
       </c>
@@ -47385,7 +47645,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>2723</v>
       </c>
@@ -47402,7 +47662,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>2724</v>
       </c>
@@ -47419,7 +47679,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>2725</v>
       </c>
@@ -47436,7 +47696,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>2726</v>
       </c>
@@ -47453,7 +47713,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>2739</v>
       </c>
@@ -47470,7 +47730,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>2740</v>
       </c>
@@ -47487,7 +47747,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>2742</v>
       </c>
@@ -47504,7 +47764,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>2743</v>
       </c>
@@ -47521,7 +47781,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>2744</v>
       </c>
@@ -47538,7 +47798,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>2745</v>
       </c>
@@ -47555,7 +47815,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>2747</v>
       </c>
@@ -47572,7 +47832,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>2750</v>
       </c>
@@ -47589,7 +47849,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>2751</v>
       </c>
@@ -47606,7 +47866,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>2755</v>
       </c>
@@ -47623,7 +47883,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>2756</v>
       </c>
@@ -47640,7 +47900,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>2760</v>
       </c>
@@ -47657,7 +47917,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>2773</v>
       </c>
@@ -47674,7 +47934,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>2794</v>
       </c>
@@ -47691,7 +47951,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>2800</v>
       </c>
@@ -47708,7 +47968,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>2832</v>
       </c>
@@ -47725,7 +47985,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>2840</v>
       </c>
@@ -47742,7 +48002,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>2844</v>
       </c>
@@ -47759,7 +48019,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>2845</v>
       </c>
@@ -47776,7 +48036,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>2847</v>
       </c>
@@ -47793,7 +48053,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>2848</v>
       </c>
@@ -47810,7 +48070,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>2849</v>
       </c>
@@ -47827,7 +48087,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>2850</v>
       </c>
@@ -47844,7 +48104,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>2861</v>
       </c>
@@ -47861,7 +48121,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>2862</v>
       </c>
@@ -47878,7 +48138,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>2863</v>
       </c>
@@ -47895,7 +48155,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>2867</v>
       </c>
@@ -47912,7 +48172,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>2868</v>
       </c>
@@ -47929,7 +48189,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>2869</v>
       </c>
@@ -47946,7 +48206,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>2882</v>
       </c>
@@ -47963,7 +48223,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>2883</v>
       </c>
@@ -47980,7 +48240,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <v>2885</v>
       </c>
@@ -47997,7 +48257,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <v>2886</v>
       </c>
@@ -48014,7 +48274,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
         <v>2905</v>
       </c>
@@ -48031,7 +48291,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>2923</v>
       </c>
@@ -48048,7 +48308,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
         <v>2924</v>
       </c>
@@ -48065,7 +48325,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>2925</v>
       </c>
@@ -48082,7 +48342,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
         <v>2932</v>
       </c>
@@ -48099,7 +48359,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>2967</v>
       </c>
@@ -48116,7 +48376,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
         <v>2971</v>
       </c>
@@ -48154,6 +48414,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007C18F91D7223F543A26D229338988E26" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="330999fac9b76c699af57ca0493c8bc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="68248bcb-19b6-401f-bbd7-5a13ca6706f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2803961d3a7828cc306084612340f00b" ns2:_="">
     <xsd:import namespace="68248bcb-19b6-401f-bbd7-5a13ca6706f5"/>
@@ -48250,15 +48519,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C30D6388-66F3-4702-94B7-89C35254F680}">
   <ds:schemaRefs>
@@ -48275,6 +48535,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24914416-91A2-4256-B235-851C099380D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FD06382-31AF-479C-9154-70E13EA83B1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -48289,12 +48557,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24914416-91A2-4256-B235-851C099380D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>